--- a/Bot_lazada/Data_lazada/data_1_1_2.xlsx
+++ b/Bot_lazada/Data_lazada/data_1_1_2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="https://www.lazada.co.th/shop-m" sheetId="1" r:id="rId1"/>
+    <sheet name="https://shopee.co.th/%E0%B9%80%" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -372,454 +372,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:M61"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>_95X4G href</v>
+        <v>col-xs-2-4 href</v>
       </c>
       <c r="B1" t="str">
-        <v>jBwCF src</v>
+        <v>Fd4QmV src</v>
       </c>
       <c r="C1" t="str">
-        <v>uEds4 href</v>
+        <v>hxLzax</v>
       </c>
       <c r="D1" t="str">
-        <v>jBwCF src 2</v>
+        <v>FTxtVW</v>
       </c>
       <c r="E1" t="str">
-        <v>uEds4 href 2</v>
+        <v>customized-overlay-image src</v>
       </c>
       <c r="F1" t="str">
-        <v>jBwCF src 3</v>
+        <v>DgXDzJ</v>
       </c>
       <c r="G1" t="str">
-        <v>RfADt</v>
+        <v>bPcAVl</v>
       </c>
       <c r="H1" t="str">
-        <v>ooOxS</v>
+        <v>k9JZlv</v>
       </c>
       <c r="I1" t="str">
-        <v>IcOsH</v>
+        <v>OwmBnn</v>
       </c>
       <c r="J1" t="str">
-        <v>qzqFw</v>
+        <v>JVW3E2</v>
       </c>
       <c r="K1" t="str">
-        <v>oa6ri</v>
+        <v>bx++ig 2</v>
       </c>
       <c r="L1" t="str">
-        <v>_1cEkb</v>
+        <v>k9JZlv 2</v>
       </c>
       <c r="M1" t="str">
-        <v>uEds4 href 3</v>
-      </c>
-      <c r="N1" t="str">
-        <v>jBwCF src 4</v>
+        <v>_1FKkT</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.lazada.co.th/products/honor-x9b-5g-12256gb-360-amoled-15k-120hz-108mp-v-5800mah-i5033909244.html</v>
+        <v>https://shopee.co.th/(HB-664)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%A7%E0%B8%A2%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%94%E0%B8%B5%E0%B9%80%E0%B8%81%E0%B8%A3%E0%B8%94%E0%B8%9E%E0%B8%A3%E0%B8%B5%E0%B9%80%E0%B8%A1%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%A1-%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87-PU-i.148585848.22431587691?sp_atk=2138bc1f-2d3e-46a0-9ed6-feae34452b96&amp;xptdk=2138bc1f-2d3e-46a0-9ed6-feae34452b96</v>
       </c>
       <c r="B2" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/2d8c1b7b07c2ac0227c1574bdcd8f502.png_200x200q80.png_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98t-lqhh0qwh7aqi8b_tn</v>
       </c>
       <c r="C2" t="str">
-        <v>https://www.lazada.co.th/products/honor-x9b-5g-12256gb-360-amoled-15k-120hz-108mp-v-5800mah-i5033909244.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D2" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/a86802283459a47c5ba78e50d5be7019.png_80x80q80.png_.webp</v>
+        <v>-52%</v>
       </c>
       <c r="E2" t="str">
-        <v>https://www.lazada.co.th/products/honor-x9b-5g-12256gb-360-amoled-15k-120hz-108mp-v-5800mah-i5033909244.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F2" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/6be4cdf41f462ad95907315aece0c6b6.png_80x80q80.png_.webp</v>
+        <v>(HB-664) กระเป๋าสะพายไหล่ สะพายข้างงานสวยหนังอย่างดีเกรดพรีเมี่ยม หนัง PU</v>
       </c>
       <c r="G2" t="str">
-        <v>HONOR X9b 5G (12+256GB) สมาร์ทโฟนหน้าจอกันกระแทก 360 องศา | จอใหญ่ AMOLED 1.5K 120Hz กล้องหลัก 108MP แบตvอึด 5800mAh</v>
+        <v>฿429</v>
       </c>
       <c r="H2" t="str">
-        <v>฿10,990.00</v>
+        <v>207</v>
       </c>
       <c r="I2" t="str">
-        <v>31% Off</v>
+        <v>ขายแล้ว 3.7พัน ชิ้น</v>
       </c>
       <c r="J2" t="str">
-        <v>(1)</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K2" t="str">
-        <v>Pathum Thani</v>
+        <v/>
       </c>
       <c r="L2" t="str">
         <v/>
       </c>
       <c r="M2" t="str">
-        <v/>
-      </c>
-      <c r="N2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a15-8128gb-micro-sd-card-256gb-i5022354781.html</v>
+        <v>https://shopee.co.th/-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%A1%E0%B8%99%E0%B8%B2%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%87%E0%B8%94%E0%B8%88%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A2-Nescafe-B-B-Puffer-Bag-1x24-CS-TH-GWP--i.164729718.22684644821?sp_atk=14b9b289-159d-4373-8b23-04b8ce711f01&amp;xptdk=14b9b289-159d-4373-8b23-04b8ce711f01</v>
       </c>
       <c r="B3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c9a626e1130e7044ff75e93fa460baab.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98v-lnaxw8b1b04n70_tn</v>
       </c>
       <c r="C3" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a15-8128gb-micro-sd-card-256gb-i5022354781.html</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/88204296d0d536676b7db3a7afc3d4c5.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>[สินค้าสมนาคุณงดจำหน่าย] Nescafe B&amp;B Puffer Bag 1x24 CS TH [GWP]</v>
       </c>
       <c r="G3" t="str">
-        <v>Samsung Galaxy A15 8/128GB รับฟรี! Micro SD card ขนาด 256GB</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v>฿6,999.00</v>
+        <v>99,999</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>ขายแล้ว 3.8พัน ชิ้น</v>
       </c>
       <c r="J3" t="str">
-        <v>(6)</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K3" t="str">
-        <v>Chachoengsao</v>
+        <v/>
       </c>
       <c r="L3" t="str">
-        <v>19 sold</v>
+        <v/>
       </c>
       <c r="M3" t="str">
-        <v/>
-      </c>
-      <c r="N3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.lazada.co.th/products/realma-c51-4g5g-amoled-67-inch-hd-gps-i5021684700.html</v>
+        <v>https://shopee.co.th/(B-954)%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%81%E0%B9%8A%E0%B8%AD%E0%B8%95-plaid-bag(%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%96%E0%B8%A1)-i.26237854.22234963267?sp_atk=993feb60-b391-4566-9c92-a0d72668bf44&amp;xptdk=993feb60-b391-4566-9c92-a0d72668bf44</v>
       </c>
       <c r="B4" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukw-leu6wcoj445tdd_tn</v>
       </c>
       <c r="C4" t="str">
-        <v>https://www.lazada.co.th/products/realma-c51-4g5g-amoled-67-inch-hd-gps-i5021684700.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D4" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-46%</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>(B-954)🔥 กระเป๋าสะพายข้าง กระเป๋าผ้า สไตล์เกาหลี แฟชั่นมา น่ารัก กระเป๋าลายสก๊อต-plaid bag(ไม่มีที่ห้อยแถม)</v>
       </c>
       <c r="G4" t="str">
-        <v>โทรศัพท์มือถือ Realma C51 สมาร์ทโฟน4G/5G AMOLED เต็มหน้าจอ6.7-inch รองรับแอปธนาคาร มีเมนูภาษาไทย กล้อง HD ปลดล็อคด้วยใบหน้า ระบบนำทาง GPS ใส่ได้สองซิม รองรับทุกซิมการ์ดในไทย โทรศัพท์บางๆ หน่วยความจําขนาดใหญ่ มือถือราคาถูกๆ ดีๆ ส่วนลดใหญ่</v>
+        <v>-</v>
       </c>
       <c r="H4" t="str">
-        <v>฿899.91</v>
+        <v>54</v>
       </c>
       <c r="I4" t="str">
-        <v>53% Off</v>
+        <v>ขายแล้ว 35.1พัน ชิ้น</v>
       </c>
       <c r="J4" t="str">
-        <v>(5)</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K4" t="str">
-        <v>Nakhon Pathom</v>
+        <v>฿</v>
       </c>
       <c r="L4" t="str">
-        <v>14 sold</v>
+        <v>63</v>
       </c>
       <c r="M4" t="str">
-        <v/>
-      </c>
-      <c r="N4" t="str">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a25-5g-8256gb-super-amoled-120hz-5g-50mp-pdaf-ois-i5021440410.html</v>
+        <v>https://shopee.co.th/%F0%9F%92%96%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-Marie-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%F0%9F%92%96%E2%9C%A8-by-8anglesshop-%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2-C037-i.9064871.20590284262?sp_atk=c826c02e-5319-4404-b06d-e071c9b79106&amp;xptdk=c826c02e-5319-4404-b06d-e071c9b79106</v>
       </c>
       <c r="B5" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lo2362wbqmnk3e_tn</v>
       </c>
       <c r="C5" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a25-5g-8256gb-super-amoled-120hz-5g-50mp-pdaf-ois-i5021440410.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D5" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-1%</v>
       </c>
       <c r="E5" t="str">
         <v/>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>💖กระเป๋ารุ่น Marie [พร้อมส่ง]💖✨ by 8anglesshop รหัสสินค้า C037</v>
       </c>
       <c r="G5" t="str">
-        <v>SAMSUNG Galaxy A25 5G (8+256GB) สมาร์ทโฟน จอ Super AMOLED 120Hz | เร็วแรง 5G | กล้อง 50MP PDAF + OIS</v>
+        <v>-</v>
       </c>
       <c r="H5" t="str">
-        <v>฿10,999.00</v>
+        <v>348</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>ขายแล้ว 3.3พัน ชิ้น</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>จังหวัดสกลนคร</v>
       </c>
       <c r="K5" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L5" t="str">
-        <v/>
+        <v>349</v>
       </c>
       <c r="M5" t="str">
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <v/>
+        <v>ส่วนลด 10%</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://www.lazada.co.th/products/tecno-pova-5-mobile-8128gb8256gb-6000-mah-i5021404115.html</v>
+        <v>https://shopee.co.th/%E0%B8%95%E0%B8%A5%E0%B8%B1%E0%B8%9A%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%87%E0%B8%9D%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B9%88%E0%B8%B2-%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B9%88%E0%B8%B2-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%9E%E0%B8%B1%E0%B8%9F-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-i.250304267.23542156615?sp_atk=6efd1261-b762-4567-a348-c32296919636&amp;xptdk=6efd1261-b762-4567-a348-c32296919636</v>
       </c>
       <c r="B6" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/d2ca20b001eb89a9673870407ab402f4.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qve3-lgnigc7sqwqn5d_tn</v>
       </c>
       <c r="C6" t="str">
-        <v>https://www.lazada.co.th/products/tecno-pova-5-mobile-8128gb8256gb-6000-mah-i5021404115.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D6" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/fd118a5486468cb2c9ff8aaf5feb4a0f.jpg_80x80q80.jpg_.webp</v>
+        <v>-69%</v>
       </c>
       <c r="E6" t="str">
-        <v>https://www.lazada.co.th/products/tecno-pova-5-mobile-8128gb8256gb-6000-mah-i5021404115.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F6" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/7a5397e6a591a277fd69ac76cbe831e7.jpg_80x80q80.jpg_.webp</v>
+        <v>ตลับแป้งฝุ่นเปล่า กล่องเปล่า ใส่พัฟ พร้อมกระจก แบบพกพา</v>
       </c>
       <c r="G6" t="str">
-        <v>Tecno Pova 5 Mobile (8+128GB/8+256GB)กล้องหน้าและกล้องคู่ แบตเตอร์รี่6000 mAh สมาร์ทโฟน โทรศัพท์เกม</v>
+        <v>-</v>
       </c>
       <c r="H6" t="str">
-        <v>฿999.00</v>
+        <v>24</v>
       </c>
       <c r="I6" t="str">
-        <v>76% Off</v>
+        <v>ขายแล้ว 9.3พัน ชิ้น</v>
       </c>
       <c r="J6" t="str">
-        <v>(15)</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K6" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L6" t="str">
-        <v>75 sold</v>
+        <v>39</v>
       </c>
       <c r="M6" t="str">
-        <v/>
-      </c>
-      <c r="N6" t="str">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.lazada.co.th/products/vivo-x90-vivo-x90-pro-vivo-x90-pro-plus-5g-snapdragon-8-gen-2-octa-core-678-120hz-amoled-screen-50mp-quad-camera-4700mah-battery-i5021269408.html</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-Milano-%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%9E%E0%B8%A7%E0%B8%87%E0%B8%81%E0%B8%B8%E0%B8%8D%E0%B9%81%E0%B8%81%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%95%E0%B9%88%E0%B8%B2%E0%B8%A2-luna-%F0%9F%90%B0-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-by-8anglesshop-%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2-C075-i.9064871.16099120844?sp_atk=3f63ad0f-3707-4eda-8485-f03500168b6a&amp;xptdk=3f63ad0f-3707-4eda-8485-f03500168b6a</v>
       </c>
       <c r="B7" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e81b2acee5f358875a80f9b2b5a2c128.png_200x200q80.png_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-loeax4a13h5w3c_tn</v>
       </c>
       <c r="C7" t="str">
-        <v>https://www.lazada.co.th/products/vivo-x90-vivo-x90-pro-vivo-x90-pro-plus-5g-snapdragon-8-gen-2-octa-core-678-120hz-amoled-screen-50mp-quad-camera-4700mah-battery-i5021269408.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D7" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/ab8d3c53b0bf32063b922f7fa4b0f16a.jpg_80x80q80.jpg_.webp</v>
+        <v>-1%</v>
       </c>
       <c r="E7" t="str">
-        <v>https://www.lazada.co.th/products/vivo-x90-vivo-x90-pro-vivo-x90-pro-plus-5g-snapdragon-8-gen-2-octa-core-678-120hz-amoled-screen-50mp-quad-camera-4700mah-battery-i5021269408.html</v>
+        <v/>
       </c>
       <c r="F7" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/866c5fc2b6a6a285aa1bead443ac412c.jpg_80x80q80.jpg_.webp</v>
+        <v>กระเป๋ารุ่น Milano แถมพวงกุญแกกระต่าย luna 🐰 [พร้อมส่ง ] by 8anglesshop รหัสสินค้า C075</v>
       </c>
       <c r="G7" t="str">
-        <v>VIVO X90 / VIVO X90 Pro / VIVO X90 Pro Plus 5G Snapdragon 8 Gen 2 Octa Core 6.78'' 120Hz AMOLED Screen 50MP Quad Camera 4700mAh Battery</v>
+        <v>฿379</v>
       </c>
       <c r="H7" t="str">
-        <v>฿28,449.00</v>
+        <v>378</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>ขายแล้ว 2.4พัน ชิ้น</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>จังหวัดสกลนคร</v>
       </c>
       <c r="K7" t="str">
-        <v>Bangkok</v>
+        <v/>
       </c>
       <c r="L7" t="str">
         <v/>
       </c>
       <c r="M7" t="str">
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <v/>
+        <v>ส่วนลด 10%</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://www.lazada.co.th/products/infinix-zero-5g-new-phone-8128-8256gb-50mp-5000mah-battery-i5021229801.html</v>
+        <v>https://shopee.co.th/B-182%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B9%E0%B8%99-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%97%E0%B8%AD-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%9B%E0%B8%B1%E0%B8%99%E0%B8%9A%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B9%8C-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%AB%E0%B8%B4%E0%B8%A7%E0%B8%8A%E0%B9%89%E0%B8%AD%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%86-i.26237854.23446007121?sp_atk=1f51fe79-ffd3-49c0-9bab-38b34b7e6760&amp;xptdk=1f51fe79-ffd3-49c0-9bab-38b34b7e6760</v>
       </c>
       <c r="B8" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul3-li8gckq427zc4f_tn</v>
       </c>
       <c r="C8" t="str">
-        <v>https://www.lazada.co.th/products/infinix-zero-5g-new-phone-8128-8256gb-50mp-5000mah-battery-i5021229801.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D8" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-95%</v>
       </c>
       <c r="E8" t="str">
-        <v>https://www.lazada.co.th/products/infinix-zero-5g-new-phone-8128-8256gb-50mp-5000mah-battery-i5021229801.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F8" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>B-182🔥พร้อมส่ง กระเป๋าถือ ลายการ์ตูน ถุงผ้าไม่ทอ ผ้าสปันบอนด์ ถุงหิวช้อปปิ้ง น่ารักๆ</v>
       </c>
       <c r="G8" t="str">
-        <v>infinix zero 5G New phone โทรศัพท์สำหรับเล่นเกม (8+128 /8+256GB) |กล้องหลังคู่ 50MP กล้องหน้า 5000mAh Battery</v>
+        <v>-</v>
       </c>
       <c r="H8" t="str">
-        <v>฿999.00</v>
+        <v>1</v>
       </c>
       <c r="I8" t="str">
-        <v>76% Off</v>
+        <v>ขายแล้ว 515.6พัน ชิ้น</v>
       </c>
       <c r="J8" t="str">
-        <v>(12)</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K8" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L8" t="str">
-        <v>60 sold</v>
+        <v>9</v>
       </c>
       <c r="M8" t="str">
-        <v/>
-      </c>
-      <c r="N8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.lazada.co.th/products/infinix-hot-30-play-1288gb-16gb-90hz-678-fhdg88-5000-mah-33w-50mp-super-night-film-i5021068720.html</v>
+        <v>https://shopee.co.th/(COM-3588)%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-GOOD-LIFE-i.26237854.13201370210?sp_atk=47193648-39d4-4e72-8658-4237cb1c74d7&amp;xptdk=47193648-39d4-4e72-8658-4237cb1c74d7</v>
       </c>
       <c r="B9" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/9a8f65156bfb8620202a4cef79189d8d_tn</v>
       </c>
       <c r="C9" t="str">
-        <v>https://www.lazada.co.th/products/infinix-hot-30-play-1288gb-16gb-90hz-678-fhdg88-5000-mah-33w-50mp-super-night-film-i5021068720.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D9" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-76%</v>
       </c>
       <c r="E9" t="str">
-        <v>https://www.lazada.co.th/products/infinix-hot-30-play-1288gb-16gb-90hz-678-fhdg88-5000-mah-33w-50mp-super-night-film-i5021068720.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F9" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>(COM-3588)🔥กระเป๋าถือ GOOD LIFE</v>
       </c>
       <c r="G9" t="str">
-        <v>Infinix HOT 30 PLAY 128+8GB (เพิ่มแรมได้สูงสุด 16GB)หน้าจอ 90HZ 6.78" FHD+G88 ชิปเซ็ตเกมมิ่งแบตเตอรี่ 5000 mAH (33W)กล้อง 50MP พร้อมโหมด Super Night Film</v>
+        <v>-</v>
       </c>
       <c r="H9" t="str">
-        <v>฿1,099.00</v>
+        <v>66</v>
       </c>
       <c r="I9" t="str">
-        <v>78% Off</v>
+        <v>ขายแล้ว 31.4พัน ชิ้น</v>
       </c>
       <c r="J9" t="str">
-        <v>(22)</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K9" t="str">
-        <v>Lamphun</v>
+        <v>฿</v>
       </c>
       <c r="L9" t="str">
-        <v>100 sold</v>
+        <v>73</v>
       </c>
       <c r="M9" t="str">
-        <v/>
-      </c>
-      <c r="N9" t="str">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.lazada.co.th/products/13pro-128gb-85-i5020961145.html</v>
+        <v>https://shopee.co.th/Deere-JACK-%E0%B8%95%E0%B8%B8%E0%B9%8A%E0%B8%81%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%AD%E0%B8%99%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-i.952164706.24450640682?sp_atk=287ebb63-a871-4035-9356-03ce52bc04db&amp;xptdk=287ebb63-a871-4035-9356-03ce52bc04db</v>
       </c>
       <c r="B10" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S1aaeb6c2ae4148889fb35a28881a7b8bh.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbm1-lnwg93rnumy07a_tn</v>
       </c>
       <c r="C10" t="str">
         <v/>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>-50%</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v>Deere JACK ตุ๊กตามอนสเตอร์น่ารัก ขนาดเล็ก</v>
       </c>
       <c r="G10" t="str">
-        <v>13pro 128GB เครื่องไทยแท้ แบต85% ครบกล่อง ส่งฟรี ไม่มีตำหนิ กล้องคมชัด</v>
+        <v>฿70</v>
       </c>
       <c r="H10" t="str">
-        <v>฿18,900.00</v>
+        <v>35</v>
       </c>
       <c r="I10" t="str">
-        <v/>
+        <v>ขายแล้ว 688 ชิ้น</v>
       </c>
       <c r="J10" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K10" t="str">
-        <v>Tak</v>
+        <v/>
       </c>
       <c r="L10" t="str">
         <v/>
       </c>
       <c r="M10" t="str">
-        <v/>
-      </c>
-      <c r="N10" t="str">
-        <v/>
+        <v>โค้ดลด ฿5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.lazada.co.th/products/vivq-y21-i5020439108.html</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E2%9C%94%EF%B8%8F%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%9B%E0%B8%B1%E0%B9%89%E0%B8%A1-%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B9%89%E0%B8%A1%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%88%E0%B8%B8%E0%B8%94%E0%B8%9E%E0%B8%A3%E0%B8%B5%E0%B9%80%E0%B8%A1%E0%B8%B5%E0%B8%A2%E0%B8%A1-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%8A%E0%B8%B2%E0%B8%A2%E0%B8%A5%E0%B8%B2%E0%B8%84%E0%B8%AD%E0%B8%8B-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%97%E0%B8%B3%E0%B8%87%E0%B8%B2%E0%B8%99-i.427182130.17993649594?sp_atk=8be7142c-6d61-4fd1-a390-150a53cc71ff&amp;xptdk=8be7142c-6d61-4fd1-a390-150a53cc71ff</v>
       </c>
       <c r="B11" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S191ac356d4ff47a1b53ca189d083f438p.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-faoptd03etov4c_tn</v>
       </c>
       <c r="C11" t="str">
         <v/>
@@ -831,1350 +801,2077 @@
         <v/>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>พร้อมส่ง✔️สายปั้ม งานปั้มทุกจุดพรีเมียม กระเป๋าสะพายข้างผู้ชายลาคอซ กระเป๋าทำงาน</v>
       </c>
       <c r="G11" t="str">
-        <v>VIVQ Y21</v>
+        <v>-</v>
       </c>
       <c r="H11" t="str">
-        <v>฿536.26</v>
+        <v>209</v>
       </c>
       <c r="I11" t="str">
-        <v/>
+        <v>ขายแล้ว 1.6พัน ชิ้น</v>
       </c>
       <c r="J11" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K11" t="str">
-        <v>Pathum Thani</v>
+        <v>฿</v>
       </c>
       <c r="L11" t="str">
-        <v/>
+        <v>599</v>
       </c>
       <c r="M11" t="str">
-        <v/>
-      </c>
-      <c r="N11" t="str">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://www.lazada.co.th/products/vivq-y27-i5020338632.html</v>
+        <v>https://shopee.co.th/MOUSOON-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%99%E0%B8%94%E0%B9%8C%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B6%E0%B8%9A%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%A7%E0%B8%B1%E0%B8%AA%E0%B8%94%E0%B8%B8-PU-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89-i.445544977.23845695984?sp_atk=f947b0d0-00d0-4685-b492-08362d087827&amp;xptdk=f947b0d0-00d0-4685-b492-08362d087827</v>
       </c>
       <c r="B12" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-lk7xmirx39zd3d_tn</v>
       </c>
       <c r="C12" t="str">
         <v/>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>-54%</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F12" t="str">
-        <v/>
+        <v>MOUSOON กระเป๋าสะพายไหล่ผู้หญิงเทรนด์ใหม่แฟชั่นสีทึบเรียบง่ายรักวัสดุ PU เนื้อคุณภาพสูงกระเป๋ารักแร้</v>
       </c>
       <c r="G12" t="str">
-        <v>VIVQ Y27</v>
+        <v>-</v>
       </c>
       <c r="H12" t="str">
-        <v>฿867.76</v>
+        <v>95</v>
       </c>
       <c r="I12" t="str">
-        <v/>
+        <v>ขายแล้ว 3.3พัน ชิ้น</v>
       </c>
       <c r="J12" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K12" t="str">
-        <v>Pathum Thani</v>
+        <v>฿</v>
       </c>
       <c r="L12" t="str">
-        <v/>
+        <v>112</v>
       </c>
       <c r="M12" t="str">
-        <v/>
-      </c>
-      <c r="N12" t="str">
-        <v/>
+        <v>ส่วนลด 50%</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.lazada.co.th/products/a54-651-2-smartphone-6gb-128gb-1-android-mobile-phone-i5020326204.html</v>
+        <v>https://shopee.co.th/-F0192-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%AB%E0%B8%B9%E0%B8%A3%E0%B8%B9%E0%B8%94-(%E0%B8%A1%E0%B8%B5%E0%B9%84%E0%B8%8B%E0%B8%AA%E0%B9%8CS-M-L-XL)-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87-i.57487502.12128278582?sp_atk=f3253660-35de-4fba-b45e-c90691288a16&amp;xptdk=f3253660-35de-4fba-b45e-c90691288a16</v>
       </c>
       <c r="B13" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/21c86f4f4250bbc7cab619a4fdadcc34_tn</v>
       </c>
       <c r="C13" t="str">
-        <v>https://www.lazada.co.th/products/a54-651-2-smartphone-6gb-128gb-1-android-mobile-phone-i5020326204.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D13" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-67%</v>
       </c>
       <c r="E13" t="str">
-        <v>https://www.lazada.co.th/products/a54-651-2-smartphone-6gb-128gb-1-android-mobile-phone-i5020326204.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F13" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>[F0192] ถุงหูรูด (มีไซส์S/ M/L/XL)  ถุงใส่ของ</v>
       </c>
       <c r="G13" t="str">
-        <v>A54 จอ  6.51 นิ้ว มือถือ รองรับ2ซิม Smartphone  แรม 6GB รอม 128GB โทรศัพท์ถูกๆ รับประกันร้าน 1 เดือน Android Mobile phone</v>
+        <v>-</v>
       </c>
       <c r="H13" t="str">
-        <v>฿2,290.00</v>
+        <v>2</v>
       </c>
       <c r="I13" t="str">
-        <v>70% Off</v>
+        <v>ขายแล้ว 56.5พัน ชิ้น</v>
       </c>
       <c r="J13" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K13" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L13" t="str">
-        <v/>
+        <v>6</v>
       </c>
       <c r="M13" t="str">
-        <v/>
-      </c>
-      <c r="N13" t="str">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.lazada.co.th/products/f7-623-2-smartphone-8gb-256gb-1-android-mobile-phone-i5020192653.html</v>
+        <v>https://shopee.co.th/(B-916)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%8D-i.26237854.23703400677?sp_atk=3c581990-0e8e-4ac7-889a-1d1136afac2f&amp;xptdk=3c581990-0e8e-4ac7-889a-1d1136afac2f</v>
       </c>
       <c r="B14" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e90da4fe81b75ac174689c68230e4b94.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-lk8genixodjv8b_tn</v>
       </c>
       <c r="C14" t="str">
-        <v>https://www.lazada.co.th/products/f7-623-2-smartphone-8gb-256gb-1-android-mobile-phone-i5020192653.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D14" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/ac33a5f9f4482b66d2fa1bb1671916f9.jpg_80x80q80.jpg_.webp</v>
+        <v>-55%</v>
       </c>
       <c r="E14" t="str">
-        <v>https://www.lazada.co.th/products/f7-623-2-smartphone-8gb-256gb-1-android-mobile-phone-i5020192653.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F14" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/2c383988616e920c05a36dc436f540f3.jpg_80x80q80.jpg_.webp</v>
+        <v>(B-916) กระเป๋าสตางค์ใส่เหรียญ</v>
       </c>
       <c r="G14" t="str">
-        <v>F7 จอ 6.23 นิ้ว มือถือ รองรับ2ซิม Smartphone  แรม 8GB รอม 256GB โทรศัพท์ถูกๆ รับประกันร้าน 1 เดือน Android Mobile phone</v>
+        <v>-</v>
       </c>
       <c r="H14" t="str">
-        <v>฿1,850.00</v>
+        <v>9</v>
       </c>
       <c r="I14" t="str">
-        <v>72% Off</v>
+        <v>ขายแล้ว 177.9พัน ชิ้น</v>
       </c>
       <c r="J14" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K14" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L14" t="str">
-        <v/>
+        <v>13</v>
       </c>
       <c r="M14" t="str">
-        <v/>
-      </c>
-      <c r="N14" t="str">
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.lazada.co.th/products/11promax-64-512gb-i5019908910.html</v>
+        <v>https://shopee.co.th/B-921%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%84%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-6%E0%B8%AA%E0%B8%B5-i.26237854.18861595358?sp_atk=471c9540-2b14-457c-8a9c-8edab1565594&amp;xptdk=471c9540-2b14-457c-8a9c-8edab1565594</v>
       </c>
       <c r="B15" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/Sba1a92b4a7e04e608fd9b41a6290203c4.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-xh06gxmqcqjv94_tn</v>
       </c>
       <c r="C15" t="str">
-        <v>https://www.lazada.co.th/products/11promax-64-512gb-i5019908910.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D15" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/Sb79fe7babecd4239b8dc06acb5f41b2eP.jpg_80x80q80.jpg_.webp</v>
+        <v>-71%</v>
       </c>
       <c r="E15" t="str">
-        <v>https://www.lazada.co.th/products/11promax-64-512gb-i5019908910.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F15" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S08aa6d5d7b194b158809124c431ea3272.jpg_80x80q80.jpg_.webp</v>
+        <v>B-921🔥กระเป๋าสำหรับผู้หญิง กระเป๋าผ้าแคนวาส กระเป๋าสะพายข้าง สไตล์เกาหลี 6สี</v>
       </c>
       <c r="G15" t="str">
-        <v>11Promax 64-512GB เครื่องไทยสแกนปกติ ไม่มีตำหนิอุปกรณ์ครบ ส่งฟรี</v>
+        <v>-</v>
       </c>
       <c r="H15" t="str">
-        <v>฿13,200.00</v>
+        <v>20</v>
       </c>
       <c r="I15" t="str">
-        <v/>
+        <v>ขายแล้ว 91.5พัน ชิ้น</v>
       </c>
       <c r="J15" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K15" t="str">
-        <v>Tak</v>
+        <v>฿</v>
       </c>
       <c r="L15" t="str">
-        <v/>
+        <v>25</v>
       </c>
       <c r="M15" t="str">
-        <v/>
-      </c>
-      <c r="N15" t="str">
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.lazada.co.th/products/infinix-hot-40-1288gb-16gb-90hz-678-fhdg88-5000-mah-33w-50mp-super-night-film-i5019801038.html</v>
+        <v>https://shopee.co.th/%F0%9F%92%95%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%82%E0%B8%A2%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%F0%9F%92%95(%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89)-Card-Holder-Silm-Wallet-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%8D-%E0%B8%82%E0%B8%A2%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-S9-92-i.121583856.2762004054?sp_atk=544fed10-311e-4989-ab83-53f87c26d66a&amp;xptdk=544fed10-311e-4989-ab83-53f87c26d66a</v>
       </c>
       <c r="B16" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/cfb2f89cecf291599393384fefa4d4fa_tn</v>
       </c>
       <c r="C16" t="str">
-        <v>https://www.lazada.co.th/products/infinix-hot-40-1288gb-16gb-90hz-678-fhdg88-5000-mah-33w-50mp-super-night-film-i5019801038.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D16" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>https://www.lazada.co.th/products/infinix-hot-40-1288gb-16gb-90hz-678-fhdg88-5000-mah-33w-50mp-super-night-film-i5019801038.html</v>
+        <v/>
       </c>
       <c r="F16" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>💕รุ่นขยายข้าง💕(หนังแท้) Card Holder Silm Wallet กระเป๋าสตางค์ กระเป๋าใส่บัตร ใส่เหรียญ ขยายข้าง S9-92</v>
       </c>
       <c r="G16" t="str">
-        <v>Infinix Hot 40 128+8GB (เพิ่มแรมได้สูงสุด 16GB)หน้าจอ 90HZ 6.78" FHD+G88 ชิปเซ็ตเกมมิ่งแบตเตอรี่ 5000 mAH (33W)กล้อง 50MP พร้อมโหมด Super Night Film</v>
+        <v/>
       </c>
       <c r="H16" t="str">
-        <v>฿1,099.00</v>
+        <v>185</v>
       </c>
       <c r="I16" t="str">
-        <v>73% Off</v>
+        <v>ขายแล้ว 13.6พัน ชิ้น</v>
       </c>
       <c r="J16" t="str">
-        <v>(17)</v>
+        <v>จังหวัดเชียงราย</v>
       </c>
       <c r="K16" t="str">
-        <v>Lamphun</v>
+        <v/>
       </c>
       <c r="L16" t="str">
-        <v>107 sold</v>
+        <v/>
       </c>
       <c r="M16" t="str">
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <v/>
+        <v>ส่วนลด 3%</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.lazada.co.th/products/new-infinix-note-30-series-4g5g-81288256-120hz-fhd-678-screen-5000mah-battery-45w-i5019729366.html</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-Tote-Bag-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4%E0%B8%A1%E0%B8%AD%E0%B8%A5-9-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%81%E0%B8%A3%E0%B8%B5%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-43x33cm-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2-i.65173690.11482878789?sp_atk=8b501d37-113e-466c-8f62-b9dd5c37df58&amp;xptdk=8b501d37-113e-466c-8f62-b9dd5c37df58</v>
       </c>
       <c r="B17" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/9ca848e29395318ed1a7aba164a84260_tn</v>
       </c>
       <c r="C17" t="str">
-        <v>https://www.lazada.co.th/products/new-infinix-note-30-series-4g5g-81288256-120hz-fhd-678-screen-5000mah-battery-45w-i5019729366.html</v>
+        <v/>
       </c>
       <c r="D17" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-81%</v>
       </c>
       <c r="E17" t="str">
-        <v>https://www.lazada.co.th/products/new-infinix-note-30-series-4g5g-81288256-120hz-fhd-678-screen-5000mah-battery-45w-i5019729366.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F17" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>กระเป๋า Tote Bag กระเป๋าผ้ามินิมอล 9 ลายสกรีน ขนาด 43x33cm กระเป๋าผ้า</v>
       </c>
       <c r="G17" t="str">
-        <v>[New] Infinix NOTE 30 SERIES 4G/5G (8+128/8+256)   120Hz FHD+ 6.78” screen  5000mAh Battery (45W)</v>
+        <v>-</v>
       </c>
       <c r="H17" t="str">
-        <v>฿1,099.00</v>
+        <v>19</v>
       </c>
       <c r="I17" t="str">
-        <v>78% Off</v>
+        <v>ขายแล้ว 150.6พัน ชิ้น</v>
       </c>
       <c r="J17" t="str">
-        <v>(25)</v>
+        <v>จังหวัดมุกดาหาร</v>
       </c>
       <c r="K17" t="str">
-        <v>Lamphun</v>
+        <v>฿</v>
       </c>
       <c r="L17" t="str">
-        <v>110 sold</v>
+        <v>26</v>
       </c>
       <c r="M17" t="str">
-        <v/>
-      </c>
-      <c r="N17" t="str">
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.lazada.co.th/products/y33s-100-ram-8gb-rom-256gb-658-i5019729139.html</v>
+        <v>https://shopee.co.th/oufeiai-(1%E0%B8%84%E0%B8%B3%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD-%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89-4%E0%B9%83%E0%B8%9A)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AB%E0%B8%A1%E0%B8%B5%E0%B8%9A%E0%B8%A3%E0%B8%B2%E0%B8%A7%E0%B8%99%E0%B9%8C-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B2%E0%B8%81-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%AB%E0%B8%A1%E0%B8%B8%E0%B8%99%E0%B9%84%E0%B8%94%E0%B9%89-360-%E0%B8%AD%E0%B8%87%E0%B8%A8%E0%B8%B2-i.782986462.21883087132?sp_atk=71c7c1cf-fe6a-49e3-ad6b-1555224c77e0&amp;xptdk=71c7c1cf-fe6a-49e3-ad6b-1555224c77e0</v>
       </c>
       <c r="B18" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/35be1a11b0a70cbab160be2166f57225.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98x-lloi80z44bdad5_tn</v>
       </c>
       <c r="C18" t="str">
-        <v>https://www.lazada.co.th/products/y33s-100-ram-8gb-rom-256gb-658-i5019729139.html</v>
+        <v/>
       </c>
       <c r="D18" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/661eb915b47f6cb1265de5a6bf518b67.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v>https://www.lazada.co.th/products/y33s-100-ram-8gb-rom-256gb-658-i5019729139.html</v>
+        <v/>
       </c>
       <c r="F18" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/8b77d8e6c9cf9d93007496a3a8d59049.jpg_80x80q80.jpg_.webp</v>
+        <v>oufeiai (1คำสั่งซื้อ สั่งได้ 4ใบ) กระเป๋าเดินทาง ลายหมีบราวน์ กระเป๋าล้อลาก กระเป๋าเดินทางทนทาน ล้อหมุนได้ 360 องศา</v>
       </c>
       <c r="G18" t="str">
-        <v>[พร้อมส่ง] โทรศัพท์มือถือ Y33s ของเเท้100% RAM 8GB ROM 256GB หน้าจอ 6.58 นิ้ว ประกันร้าน เเถมฟรีเคสใส+ฟิล์มกระจก</v>
+        <v>-</v>
       </c>
       <c r="H18" t="str">
-        <v>฿2,980.00</v>
+        <v>439</v>
       </c>
       <c r="I18" t="str">
-        <v>66% Off</v>
+        <v>ขายแล้ว 2.5พัน ชิ้น</v>
       </c>
       <c r="J18" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K18" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L18" t="str">
-        <v/>
+        <v>479</v>
       </c>
       <c r="M18" t="str">
-        <v/>
-      </c>
-      <c r="N18" t="str">
-        <v/>
+        <v>โค้ดลด ฿20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.lazada.co.th/products/y93-100-ram-6gb-rom-128gb-622-i5019608541.html</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%8720-24-28%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%8B%E0%B8%B4%E0%B8%9B-%E0%B8%A7%E0%B8%B1%E0%B8%AA%E0%B8%94%E0%B8%B8ABS-PC-%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87%E0%B9%81%E0%B8%A3%E0%B8%87%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-i.427926581.20016541786?sp_atk=ade80d3a-2386-4303-bb30-c5e444aac079&amp;xptdk=ade80d3a-2386-4303-bb30-c5e444aac079</v>
       </c>
       <c r="B19" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/6e0e07b9ee230e71bcc2c38b6a88301b.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/2313edebf3dc5f3e369e2d356c04733b_tn</v>
       </c>
       <c r="C19" t="str">
-        <v>https://www.lazada.co.th/products/y93-100-ram-6gb-rom-128gb-622-i5019608541.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D19" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/f7422e3ca44418fda13c99e74c0c23ac.jpg_80x80q80.jpg_.webp</v>
+        <v>-77%</v>
       </c>
       <c r="E19" t="str">
-        <v>https://www.lazada.co.th/products/y93-100-ram-6gb-rom-128gb-622-i5019608541.html</v>
+        <v/>
       </c>
       <c r="F19" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/b3ee41ce220c0751066be8e43c1f4531.jpg_80x80q80.jpg_.webp</v>
+        <v>กระเป๋าเดินทาง20/24/28นิ้ว รุ่นซิป วัสดุABS+PC แข็งแรงทนทาน</v>
       </c>
       <c r="G19" t="str">
-        <v>[พร้อมส่ง] โทรศัพท์มือถือ Y93 ของเเท้100% RAM 6GB ROM 128GB หน้าจอ 6.22 นิ้ว ประกันร้าน เเถมฟรีเคสใส+ฟิล์มกระจก</v>
+        <v>-</v>
       </c>
       <c r="H19" t="str">
-        <v>฿1,590.00</v>
+        <v>455</v>
       </c>
       <c r="I19" t="str">
-        <v>76% Off</v>
+        <v>ขายแล้ว 4.8พัน ชิ้น</v>
       </c>
       <c r="J19" t="str">
-        <v>(2)</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K19" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L19" t="str">
-        <v/>
+        <v>830</v>
       </c>
       <c r="M19" t="str">
-        <v/>
-      </c>
-      <c r="N19" t="str">
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.lazada.co.th/products/11-128gb-i5018726717.html</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B8%A1%E0%B8%B5%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B8%AB%E0%B8%B9%E0%B8%A3%E0%B8%B9%E0%B8%94-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A-i.448587770.18092173972?sp_atk=0daafc52-c65a-40b6-833e-d3d4f9078d4d&amp;xptdk=0daafc52-c65a-40b6-833e-d3d4f9078d4d</v>
       </c>
       <c r="B20" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7r98o-lkp1wtrtx8c013_tn</v>
       </c>
       <c r="C20" t="str">
-        <v>https://www.lazada.co.th/products/11-128gb-i5018726717.html</v>
+        <v/>
       </c>
       <c r="D20" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-71%</v>
       </c>
       <c r="E20" t="str">
-        <v>https://www.lazada.co.th/products/11-128gb-i5018726717.html</v>
+        <v/>
       </c>
       <c r="F20" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>ถุงพลาสติกลายน่ารัก/มีหลายลาย สำหรับใส่ของ ถุงพลาสติกหูรูด ถุงใส่ของ ถุงเก็บ</v>
       </c>
       <c r="G20" t="str">
-        <v>11 ความจุ128GB ไทยแท้ เปลี่ยนจอ-แบตนอก มีทูโทน ไม่มีตำหนิ อุปกรณ์ครบกล่อง</v>
+        <v>-</v>
       </c>
       <c r="H20" t="str">
-        <v>฿9,000.00</v>
+        <v>2</v>
       </c>
       <c r="I20" t="str">
-        <v/>
+        <v>ขายแล้ว 5.5พัน ชิ้น</v>
       </c>
       <c r="J20" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K20" t="str">
-        <v>Tak</v>
+        <v>฿</v>
       </c>
       <c r="L20" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="M20" t="str">
-        <v/>
-      </c>
-      <c r="N20" t="str">
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.lazada.co.th/products/i15promax-5g-75-2-smartphone-4g5g-16gb-512gb-mobile-phone-i5018683243.html</v>
+        <v>https://shopee.co.th/TAIDU-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%8A%E0%B8%B2%E0%B8%A2-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2-%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B8%E0%B8%AA%E0%B8%B9%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-i.593651531.16482739138?sp_atk=c4e72e3f-6760-4fd3-9305-f3d90ed719e1&amp;xptdk=c4e72e3f-6760-4fd3-9305-f3d90ed719e1</v>
       </c>
       <c r="B21" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/a47c3865b4fc4526b54a0900eecd07a0_tn</v>
       </c>
       <c r="C21" t="str">
-        <v>https://www.lazada.co.th/products/i15promax-5g-75-2-smartphone-4g5g-16gb-512gb-mobile-phone-i5018683243.html</v>
+        <v/>
       </c>
       <c r="D21" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-62%</v>
       </c>
       <c r="E21" t="str">
-        <v>https://www.lazada.co.th/products/i15promax-5g-75-2-smartphone-4g5g-16gb-512gb-mobile-phone-i5018683243.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F21" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>TAIDU กระเป๋าสะพายข้างผู้ชาย กระเป๋าสะพาย เกาหลี เรียบง่าย ความจุสูง กระเป๋าสะพายข้าง</v>
       </c>
       <c r="G21" t="str">
-        <v>ใหม่ i15promax 5G 7.5นิ้ว โทรศัพท์มือถือ รองรับ2ซิม Smartphone 4G/5G โทรศัพท์สมา แรม16GB รอม512GB โทรศัพท์ถูกๆ มือถือ Mobile phone ส่งฟรี มือถือราคาถูกๆ โทรศัพ</v>
+        <v>-</v>
       </c>
       <c r="H21" t="str">
-        <v>฿999.00</v>
+        <v>99</v>
       </c>
       <c r="I21" t="str">
-        <v>75% Off</v>
+        <v>ขายแล้ว 4.6พัน ชิ้น</v>
       </c>
       <c r="J21" t="str">
-        <v>(25)</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K21" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L21" t="str">
-        <v>135 sold</v>
+        <v>108</v>
       </c>
       <c r="M21" t="str">
-        <v>https://www.lazada.co.th/products/i15promax-5g-75-2-smartphone-4g5g-16gb-512gb-mobile-phone-i5018683243.html</v>
-      </c>
-      <c r="N21" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>โค้ดลด ฿12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.lazada.co.th/products/tecno-pova-neo-2-new-phone-8128-8256gb-50mp-12mp-led-i5018511970.html</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%94%E0%B8%B5-%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%8B%E0%B8%B4%E0%B8%9B-%E0%B8%A1%E0%B8%B5%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%84%E0%B9%88%E0%B8%B0-%E0%B8%AA%E0%B8%A7%E0%B8%A2%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-i.783038845.16479020603?sp_atk=29c146e2-c99a-4d15-9f76-659c85a0a423&amp;xptdk=29c146e2-c99a-4d15-9f76-659c85a0a423</v>
       </c>
       <c r="B22" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/20506b91c8e66f4bc6f4ac3bb8faace6.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul5-lh628gae2inocf_tn</v>
       </c>
       <c r="C22" t="str">
-        <v>https://www.lazada.co.th/products/tecno-pova-neo-2-new-phone-8128-8256gb-50mp-12mp-led-i5018511970.html</v>
+        <v/>
       </c>
       <c r="D22" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/412b8a31316a996c3f8eafda7ab5ae07.jpg_80x80q80.jpg_.webp</v>
+        <v>-78%</v>
       </c>
       <c r="E22" t="str">
-        <v>https://www.lazada.co.th/products/tecno-pova-neo-2-new-phone-8128-8256gb-50mp-12mp-led-i5018511970.html</v>
+        <v/>
       </c>
       <c r="F22" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/938131f10b72b8aff5a2a225062e4414.jpg_80x80q80.jpg_.webp</v>
+        <v>กระเป๋าสะพายข้าง ผ้าดี หลายซิป มีหลายรุ่นค่ะ  สวยทุกรุ่น</v>
       </c>
       <c r="G22" t="str">
-        <v>Tecno Pova Neo 2 New phone โทรศัพท์สำหรับเล่นเกม (8+128 /8+256GB) |กล้องหลังคู่ 50MP กล้องหน้า 12MP มีไฟแฟลช LED</v>
+        <v>-</v>
       </c>
       <c r="H22" t="str">
-        <v>฿999.00</v>
+        <v>55</v>
       </c>
       <c r="I22" t="str">
-        <v>76% Off</v>
+        <v>ขายแล้ว 3.9พัน ชิ้น</v>
       </c>
       <c r="J22" t="str">
-        <v>(27)</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="K22" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L22" t="str">
-        <v>145 sold</v>
+        <v>115</v>
       </c>
       <c r="M22" t="str">
-        <v/>
-      </c>
-      <c r="N22" t="str">
-        <v/>
+        <v>โค้ดลด ฿10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.lazada.co.th/products/sansumg-galaxy-ultra-5g-2-smartphone-5g-12gb-512gb-mobile-phone-i5018108215.html</v>
+        <v>https://shopee.co.th/SIMMA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B2%E0%B8%81%E2%80%8B-Colors-Series-%E0%B9%80%E0%B8%9F%E0%B8%A3%E0%B8%A1%E0%B8%8B%E0%B8%B4%E0%B8%9B-%E0%B8%A7%E0%B8%B1%E0%B8%AA%E0%B8%94%E0%B8%B8ABS-PC-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-6-%E0%B8%AA%E0%B8%B5-i.223339291.20964956094?sp_atk=8f51148f-29d0-4a48-82b4-8ca71c1577d8&amp;xptdk=8f51148f-29d0-4a48-82b4-8ca71c1577d8</v>
       </c>
       <c r="B23" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/cf392fe610d92881ec05c7e0da2c0976.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul8-ljheqb2gahwm7f_tn</v>
       </c>
       <c r="C23" t="str">
-        <v>https://www.lazada.co.th/products/sansumg-galaxy-ultra-5g-2-smartphone-5g-12gb-512gb-mobile-phone-i5018108215.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D23" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/0266a1f626a4e0513157eee6080ad177.jpg_80x80q80.jpg_.webp</v>
+        <v>-74%</v>
       </c>
       <c r="E23" t="str">
-        <v>https://www.lazada.co.th/products/sansumg-galaxy-ultra-5g-2-smartphone-5g-12gb-512gb-mobile-phone-i5018108215.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F23" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/9d6a32f6d7fb313a2a5022da4589cca5.jpg_80x80q80.jpg_.webp</v>
+        <v>SIMMA  กระเป๋าเดินทาง กระเป๋าเดินทางล้อลาก​ Colors Series เฟรมซิป วัสดุABS+PC สีสดใส 6 สี</v>
       </c>
       <c r="G23" t="str">
-        <v>โทรศัพท์ ของแท้ SANSUMG Galaxy S23+ Ultra 5G โทรศัพท์มือถือ รองรับ2ซิม Smartphone 5G โทรศัพท์สมา แรม12GB รอม512GB โทรศัพท์ถูกๆ มือถือ Mobile phone โทรศัพท์ถูกๆ มือถือราคาถูกๆ โทรศัพท์สำห รับเล่นเกม โทรสับราคาถูก มือถือ โทรศัพท์สำห ส่งฟรี โทรศัพท์ราคถูก</v>
+        <v>-</v>
       </c>
       <c r="H23" t="str">
-        <v>฿1,399.00</v>
+        <v>497</v>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>ขายแล้ว 3.3พัน ชิ้น</v>
       </c>
       <c r="J23" t="str">
-        <v>(65)</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K23" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L23" t="str">
-        <v>392 sold</v>
+        <v>939</v>
       </c>
       <c r="M23" t="str">
-        <v/>
-      </c>
-      <c r="N23" t="str">
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.lazada.co.th/products/realme-10-pro-5g-8256-i5018088585.html</v>
+        <v>https://shopee.co.th/%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%83%E0%B8%AA-10-30-50-60-100-%E0%B8%A1%E0%B8%A5.%E0%B9%80%E0%B8%AB%E0%B8%A1%E0%B8%B2%E0%B8%B0%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%83%E0%B8%99%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B8%9C%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B8%A0%E0%B8%B1%E0%B8%93%E0%B8%91%E0%B9%8C%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7-i.663819440.16722902599?sp_atk=85553700-26fe-45e6-9301-7121b8ada788&amp;xptdk=85553700-26fe-45e6-9301-7121b8ada788</v>
       </c>
       <c r="B24" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/06abc41c55ead45218c353c66e0e8774_tn</v>
       </c>
       <c r="C24" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D24" t="str">
-        <v/>
+        <v>-50%</v>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F24" t="str">
-        <v/>
+        <v>ขวดพลาสติกใส 10 / 30 / 50 / 60 / 100 มล.เหมาะสำหรับใช้ในการเดินทางผลิตภัณฑ์บำรุงผิว</v>
       </c>
       <c r="G24" t="str">
-        <v>‼️Realme 10 Pro 5G (8/256) เครื่องศูนย์เคลียร์สต็อค‼️</v>
+        <v>-</v>
       </c>
       <c r="H24" t="str">
-        <v>฿6,790.00</v>
+        <v>2</v>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>ขายแล้ว 55.7พัน ชิ้น</v>
       </c>
       <c r="J24" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K24" t="str">
-        <v>Nonthaburi</v>
+        <v>฿</v>
       </c>
       <c r="L24" t="str">
-        <v/>
+        <v>8</v>
       </c>
       <c r="M24" t="str">
-        <v/>
-      </c>
-      <c r="N24" t="str">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.lazada.co.th/products/sansumg-a03-5g-smartphone-2-12gb-512gb-andorid-mobile-phone-i5018074345.html</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1-15-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-15MALL1000-MaisyDaisy-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B2%E0%B8%81-20%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-24%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-26%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-28%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87%E0%B9%81%E0%B8%A3%E0%B8%87-8%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%AB%E0%B8%A1%E0%B8%B8%E0%B8%99360%E0%B8%AD%E0%B8%87%E0%B8%A8%E0%B8%B2-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-Classy-i.133067051.2259444298?sp_atk=689a77e2-4364-402a-953b-f64662973992&amp;xptdk=689a77e2-4364-402a-953b-f64662973992</v>
       </c>
       <c r="B25" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-eplas9t1rsnv36_tn</v>
       </c>
       <c r="C25" t="str">
-        <v>https://www.lazada.co.th/products/sansumg-a03-5g-smartphone-2-12gb-512gb-andorid-mobile-phone-i5018074345.html</v>
+        <v/>
       </c>
       <c r="D25" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-49%</v>
       </c>
       <c r="E25" t="str">
-        <v>https://www.lazada.co.th/products/sansumg-a03-5g-smartphone-2-12gb-512gb-andorid-mobile-phone-i5018074345.html</v>
+        <v/>
       </c>
       <c r="F25" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>ลดเพิ่ม 15% ใส่โค้ด 15MALL1000 MaisyDaisy กระเป๋าเดินทาง กระเป๋าเดินทางล้อลาก 20นิ้ว 24นิ้ว 26นิ้ว 28นิ้ว แข็งแรง 8ล้อหมุน360องศา รุ่น Classy</v>
       </c>
       <c r="G25" t="str">
-        <v>โทรศัพท์มือถือ SANSUMG A03 5G ของแท้ Smartphone รองรับ2ซิม โทรศัพท์ ของแท้ แรม12GB รอม512GB โทรศัพท์ถูกๆ Andorid มือถือ Mobile phone โทรศัพท์ถูกๆ โทรศัพท์สมา ส่งฟรี โทรศัพท์ราคถูก มือถือราคาถูก รับเล่นเกม โทรสับราคาถูก โทรศัพท์สำห มือถือราคาถูกๆ โทรศัพท์</v>
+        <v>-</v>
       </c>
       <c r="H25" t="str">
-        <v>฿999.00</v>
+        <v>658</v>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>ขายแล้ว 29.5พัน ชิ้น</v>
       </c>
       <c r="J25" t="str">
-        <v>(59)</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K25" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L25" t="str">
-        <v>410 sold</v>
+        <v>1,188</v>
       </c>
       <c r="M25" t="str">
-        <v/>
-      </c>
-      <c r="N25" t="str">
-        <v/>
+        <v>โค้ดลด ฿20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-k70-pro-redmi-k70-redmi-k70e-5g-snapdragon-8-gen-2-667-hyperos-120hz-120w-charge-50mp-i5018037007.html</v>
+        <v>https://shopee.co.th/1.1%F0%9F%8C%B7%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%8E%80-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4%E0%B8%A1%E0%B8%AD%E0%B8%A5-%E0%B8%A7%E0%B8%B1%E0%B8%AA%E0%B8%94%E0%B8%B8%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87-%E0%B8%A1%E0%B8%B5%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B8%96%E0%B8%B6%E0%B8%87-10-%E0%B8%AA%E0%B8%B5-%E0%B8%AA%E0%B8%B5%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-No.C368-1-i.385903185.22640605836?sp_atk=9d242443-d4ed-4ba0-8ea6-9757cce09a1f&amp;xptdk=9d242443-d4ed-4ba0-8ea6-9757cce09a1f</v>
       </c>
       <c r="B26" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/a894f1c6ccae10c6c9254480a6660352.png_200x200q80.png_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98q-lmvvk04nmgav0d_tn</v>
       </c>
       <c r="C26" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-k70-pro-redmi-k70-redmi-k70e-5g-snapdragon-8-gen-2-667-hyperos-120hz-120w-charge-50mp-i5018037007.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D26" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e1b791d196a5b233a455336ac2cefb86.jpg_80x80q80.jpg_.webp</v>
+        <v>-8%</v>
       </c>
       <c r="E26" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-k70-pro-redmi-k70-redmi-k70e-5g-snapdragon-8-gen-2-667-hyperos-120hz-120w-charge-50mp-i5018037007.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F26" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/57fca8cadd922ddeeba677b942ece32e.jpg_80x80q80.jpg_.webp</v>
+        <v>1.1🌷พร้อมส่งในไทย🎀 กระเป๋าสตางค์มินิมอล วัสดุหนัง มีมากถึง 10 สี สีน่ารัก พกพาสะดวก ใส่บัตรได้เยอะ No.C368-1</v>
       </c>
       <c r="G26" t="str">
-        <v>Xiaomi Redmi K70 Pro/ Redmi K70 /Redmi K70E 5G Snapdragon 8 Gen 2 6.67" HyperOS 120Hz 120W Charge 50MP</v>
+        <v>-</v>
       </c>
       <c r="H26" t="str">
-        <v>฿12,399.00</v>
+        <v>83</v>
       </c>
       <c r="I26" t="str">
-        <v/>
+        <v>ขายแล้ว 3.5พัน ชิ้น</v>
       </c>
       <c r="J26" t="str">
-        <v/>
+        <v>จังหวัดมหาสารคาม</v>
       </c>
       <c r="K26" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L26" t="str">
-        <v/>
+        <v>87</v>
       </c>
       <c r="M26" t="str">
-        <v/>
-      </c>
-      <c r="N26" t="str">
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-13-ultra-5g-256gb-512gb-snapdragon-8-gen-2-dual-5g-673-display-120hz-5000mah-battery-50mp-camera-i5018020263.html</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88%E0%B8%A5%E0%B9%8D%E0%B8%B2%E0%B8%A5%E0%B8%AD%E0%B8%87-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%A3%E0%B9%82%E0%B8%97%E0%B8%A3-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.275328013.19152997319?sp_atk=2f4dea80-cf14-4f1e-b3af-6e0f2f0a797f&amp;xptdk=2f4dea80-cf14-4f1e-b3af-6e0f2f0a797f</v>
       </c>
       <c r="B27" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/9960b7027e3e0b187084912b903d782f.png_200x200q80.png_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-23020-mpxvf5qvfunvbd_tn</v>
       </c>
       <c r="C27" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-13-ultra-5g-256gb-512gb-snapdragon-8-gen-2-dual-5g-673-display-120hz-5000mah-battery-50mp-camera-i5018020263.html</v>
+        <v/>
       </c>
       <c r="D27" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e4308c6c017d821f562abf68197730cf.jpg_80x80q80.jpg_.webp</v>
+        <v>-67%</v>
       </c>
       <c r="E27" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-13-ultra-5g-256gb-512gb-snapdragon-8-gen-2-dual-5g-673-display-120hz-5000mah-battery-50mp-camera-i5018020263.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F27" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c3bfe044a0a642ebc87b2865e58db350.jpg_80x80q80.jpg_.webp</v>
+        <v>กระเป๋าสะพายไหล่ลําลอง ขนาดใหญ่ จุของได้เยอะ แบบเรียบง่าย สไตล์เรโทร สําหรับผู้หญิง</v>
       </c>
       <c r="G27" t="str">
-        <v>Xiaomi 13 Ultra 5G 256GB 512GB Snapdragon 8 Gen 2 Dual 5G 6.73" Display 120Hz 5000mAh Battery 50MP Camera</v>
+        <v>฿216</v>
       </c>
       <c r="H27" t="str">
-        <v>฿26,299.00</v>
+        <v>72</v>
       </c>
       <c r="I27" t="str">
-        <v>9% Off</v>
+        <v>ขายแล้ว 6.4พัน ชิ้น</v>
       </c>
       <c r="J27" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K27" t="str">
-        <v>Bangkok</v>
+        <v/>
       </c>
       <c r="L27" t="str">
         <v/>
       </c>
       <c r="M27" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-13-ultra-5g-256gb-512gb-snapdragon-8-gen-2-dual-5g-673-display-120hz-5000mah-battery-50mp-camera-i5018020263.html</v>
-      </c>
-      <c r="N27" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/d3f8fb5ac53fa7c0ac53eb3b535ba6f2.jpg_80x80q80.jpg_.webp</v>
+        <v>โค้ดลด ฿2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.lazada.co.th/products/sansumg-a13-5g-smartphone-2-12gb-512gb-andorid-mobile-phone-i5017992901.html</v>
+        <v>https://shopee.co.th/(HB-589)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87-PU-i.148585848.18452338793?sp_atk=9b67fa7f-0f06-48ff-85d1-e44637b2c07a&amp;xptdk=9b67fa7f-0f06-48ff-85d1-e44637b2c07a</v>
       </c>
       <c r="B28" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/426e7c8744cdd2d0bbe3c41531e54900.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvd7-lgx46msphipja2_tn</v>
       </c>
       <c r="C28" t="str">
-        <v>https://www.lazada.co.th/products/sansumg-a13-5g-smartphone-2-12gb-512gb-andorid-mobile-phone-i5017992901.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D28" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/7fe9c0733122c9b0d6e57b8d4efbd8e6.jpg_80x80q80.jpg_.webp</v>
+        <v>-39%</v>
       </c>
       <c r="E28" t="str">
-        <v>https://www.lazada.co.th/products/sansumg-a13-5g-smartphone-2-12gb-512gb-andorid-mobile-phone-i5017992901.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F28" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/cece8c93180b327b425e612c124eecdb.jpg_80x80q80.jpg_.webp</v>
+        <v>(HB-589) กระเป๋าสตางค์ กระเป๋าถือ สะพายข้าง หนัง PU</v>
       </c>
       <c r="G28" t="str">
-        <v>โทรศัพท์มือถือ SANSUMG A13 5G ของแท้ Smartphone รองรับ2ซิม โทรศัพท์ ของแท้ แรม12GB รอม512GB โทรศัพท์ถูกๆ Andorid มือถือ Mobile phone โทรศัพท์ถูกๆ โทรศัพท์สมา ส่งฟรี โทรศัพท์ราคถูก มือถือราคาถูก รับเล่นเกม โทรสับราคาถูก โทรศัพท์สำห มือถือราคาถูกๆ โทรศัพท์</v>
+        <v>-</v>
       </c>
       <c r="H28" t="str">
-        <v>฿1,199.00</v>
+        <v>148</v>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>ขายแล้ว 4.1พัน ชิ้น</v>
       </c>
       <c r="J28" t="str">
-        <v>(60)</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K28" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L28" t="str">
-        <v>395 sold</v>
+        <v>158</v>
       </c>
       <c r="M28" t="str">
-        <v/>
-      </c>
-      <c r="N28" t="str">
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-mi-13-xiaomi-mi-13-pro-snapdragon-8-gen-2-636-120hz-oled-screen-50mp-leica-camera-67w-hypercharger-miui-14-i5017941887.html</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%89%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%AB%E0%B8%A5%E0%B8%B1%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%82%E0%B8%8B%E0%B9%88-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%A4%E0%B8%94%E0%B8%B9%E0%B9%83%E0%B8%9A%E0%B9%84%E0%B8%A1%E0%B9%89%E0%B8%9C%E0%B8%A5%E0%B8%B4-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A4%E0%B8%94%E0%B8%B9%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%95%E0%B8%A3%E0%B8%B5-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99-2023-i.868396420.23350967703?sp_atk=017a12a3-f6a0-4238-9a99-e2a729be0e4f&amp;xptdk=017a12a3-f6a0-4238-9a99-e2a729be0e4f</v>
       </c>
       <c r="B29" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/3b8dee1112bb54b586406bce20afefa7.png_200x200q80.png_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lnwnmgrq9mzf82_tn</v>
       </c>
       <c r="C29" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-mi-13-xiaomi-mi-13-pro-snapdragon-8-gen-2-636-120hz-oled-screen-50mp-leica-camera-67w-hypercharger-miui-14-i5017941887.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D29" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/feb31af14d8d8a97f27b84612ff724cb.png_80x80q80.png_.webp</v>
+        <v>-64%</v>
       </c>
       <c r="E29" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-mi-13-xiaomi-mi-13-pro-snapdragon-8-gen-2-636-120hz-oled-screen-50mp-leica-camera-67w-hypercharger-miui-14-i5017941887.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F29" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/3b565fb8d0474367d39cb63d59f528cc.png_80x80q80.png_.webp</v>
+        <v>กระเป๋าเป้สะพายหลัง กระเป๋าสะพายไหล่ แต่งสายโซ่ ขนาดเล็ก สไตล์เกาหลี แฟชั่นฤดูใบไม้ผลิ และฤดูร้อน สําหรับสตรี และนักเรียน 2023</v>
       </c>
       <c r="G29" t="str">
-        <v>Xiaomi Mi 13 / Xiaomi Mi 13 Pro Snapdragon 8 Gen 2 6.36'' 120Hz OLED Screen 50MP Leica Camera 67W HyperCharger MIUI 14</v>
+        <v>-</v>
       </c>
       <c r="H29" t="str">
-        <v>฿20,599.00</v>
+        <v>175</v>
       </c>
       <c r="I29" t="str">
-        <v/>
+        <v>ขายแล้ว 1.5พัน ชิ้น</v>
       </c>
       <c r="J29" t="str">
-        <v/>
+        <v>จังหวัดสมุทรสาคร</v>
       </c>
       <c r="K29" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L29" t="str">
-        <v/>
+        <v>199</v>
       </c>
       <c r="M29" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-mi-13-xiaomi-mi-13-pro-snapdragon-8-gen-2-636-120hz-oled-screen-50mp-leica-camera-67w-hypercharger-miui-14-i5017941887.html</v>
-      </c>
-      <c r="N29" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/2e4ab501f7c26b38f188f3add818e45b.png_80x80q80.png_.webp</v>
+        <v>ส่วนลด 50%</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a15-5g-8256gb-i5017733966.html</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%AD%E0%B8%81-%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%AD%E0%B8%A7-%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B8%AA%E0%B8%9B%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%95-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%99%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%97%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B1%E0%B8%94-B-812-i.26237854.14588807589?sp_atk=4762f93d-d8e6-4d17-bc53-f97eb9093805&amp;xptdk=4762f93d-d8e6-4d17-bc53-f97eb9093805</v>
       </c>
       <c r="B30" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/8d1ce2854dba0e7b8f1468e72fbd17e3.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/20697c6f51fe7b0d21c982e9069c3576_tn</v>
       </c>
       <c r="C30" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a15-5g-8256gb-i5017733966.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D30" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/eca5aff8325c62b7da90d486f286375b.jpg_80x80q80.jpg_.webp</v>
+        <v>-47%</v>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F30" t="str">
-        <v/>
+        <v>กระเป๋าคาดหน้าอก คาดเอว สะพายข้าง สไตล์สปอร์ต ผ้าไนล่อนกันน้ำ ขนาดกระทัดรัด B-812</v>
       </c>
       <c r="G30" t="str">
-        <v>Samsung Galaxy A15 5G (8/256GB)</v>
+        <v>฿150</v>
       </c>
       <c r="H30" t="str">
-        <v>฿8,739.00</v>
+        <v>79</v>
       </c>
       <c r="I30" t="str">
-        <v>3% Off</v>
+        <v>ขายแล้ว 20.6พัน ชิ้น</v>
       </c>
       <c r="J30" t="str">
-        <v>(0)</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K30" t="str">
-        <v>Pathum Thani</v>
+        <v/>
       </c>
       <c r="L30" t="str">
-        <v>12 sold</v>
+        <v/>
       </c>
       <c r="M30" t="str">
-        <v/>
-      </c>
-      <c r="N30" t="str">
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://www.lazada.co.th/products/tecno-pova-5-pro-5g-8256gb-fhd-678-68w-mediatec-6000-1-i5017681738.html</v>
+        <v>https://shopee.co.th/B-750-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%83%E0%B8%9A%E0%B8%AA%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%81%E0%B9%8A%E0%B8%AD%E0%B8%95-i.26237854.17839557161?sp_atk=be9f904b-c7d2-4336-a699-f6b1c0ff8f72&amp;xptdk=be9f904b-c7d2-4336-a699-f6b1c0ff8f72</v>
       </c>
       <c r="B31" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/6fc7557e1bd80e8296d3a78e014ca7a8.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/ab9333bb2687ce29e6aa704126a90c25_tn</v>
       </c>
       <c r="C31" t="str">
-        <v>https://www.lazada.co.th/products/tecno-pova-5-pro-5g-8256gb-fhd-678-68w-mediatec-6000-1-i5017681738.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D31" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/6fc7557e1bd80e8296d3a78e014ca7a8.jpg_80x80q80.jpg_.webp</v>
+        <v>-48%</v>
       </c>
       <c r="E31" t="str">
-        <v>https://www.lazada.co.th/products/tecno-pova-5-pro-5g-8256gb-fhd-678-68w-mediatec-6000-1-i5017681738.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F31" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/580c17509e5867746ed94d75e004b1e1.jpg_80x80q80.jpg_.webp</v>
+        <v>B-750 กระเป๋าสตางค์ใบสั้น กระเป๋าลายสก๊อต</v>
       </c>
       <c r="G31" t="str">
-        <v>TECNO Pova 5 PRO 5G (8+256GB) มือถือเกมมิ่งจอFHD+ 6.78นิ้ว ชาร์จไว68w ชิป Mediatec 6000+ ไม่มีหัวชาร์จในกล่อง (รับประกันสินค้าแท้ศูนย์ไทย1ปี)</v>
+        <v>฿50</v>
       </c>
       <c r="H31" t="str">
-        <v>฿6,790.00</v>
+        <v>26</v>
       </c>
       <c r="I31" t="str">
-        <v>3% Off</v>
+        <v>ขายแล้ว 18.3พัน ชิ้น</v>
       </c>
       <c r="J31" t="str">
-        <v>(6)</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K31" t="str">
-        <v>Nakhon Si Thammarat</v>
+        <v/>
       </c>
       <c r="L31" t="str">
-        <v>14 sold</v>
+        <v/>
       </c>
       <c r="M31" t="str">
-        <v>https://www.lazada.co.th/products/tecno-pova-5-pro-5g-8256gb-fhd-678-68w-mediatec-6000-1-i5017681738.html</v>
-      </c>
-      <c r="N31" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/75f00abc6d2b2436735908c0b5d322dc.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-note-13-note-13-pro-note-13-pro-5g-cn-version-667-15k-120hz-mediatek7200-ultra-5000mah-battery-120w-fast-charging-200-mp-i5017649308.html</v>
+        <v>https://shopee.co.th/C%EF%BC%86K-%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%9D%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A8%E0%B8%AA%E0%B8%88%E0%B8%B5%E0%B8%9A%E0%B8%AD%E0%B8%AD%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%96%E0%B8%B1%E0%B8%87%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2-i.886122338.22074752752?sp_atk=660ab7ff-cc5f-49bc-8036-6209f563366b&amp;xptdk=660ab7ff-cc5f-49bc-8036-6209f563366b</v>
       </c>
       <c r="B32" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/433d76c6f0a63306268d59b2b763ebbf.png_200x200q80.png_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul3-lkc32wjtqtwpd0_tn</v>
       </c>
       <c r="C32" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-note-13-note-13-pro-note-13-pro-5g-cn-version-667-15k-120hz-mediatek7200-ultra-5000mah-battery-120w-fast-charging-200-mp-i5017649308.html</v>
+        <v/>
       </c>
       <c r="D32" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/054d5137aa33f3ee0d25f18decb2b37f.png_80x80q80.png_.webp</v>
+        <v>-59%</v>
       </c>
       <c r="E32" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-note-13-note-13-pro-note-13-pro-5g-cn-version-667-15k-120hz-mediatek7200-ultra-5000mah-battery-120w-fast-charging-200-mp-i5017649308.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F32" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/8b7df95fd70537c7e312a2b9427a4c0c.png_80x80q80.png_.webp</v>
+        <v>C＆K ผู้หญิงกระเป๋าสะพายเกาหลีรุ่นร้อยชิ้นฝรั่งเศสจีบออกแบบเรียบง่ายถังแฟชั่นกระเป๋าสะพาย</v>
       </c>
       <c r="G32" t="str">
-        <v>Xiaomi Redmi Note 13 / Note 13 Pro / Note 13 Pro+ 5G CN Version 6.67" 1.5K 120Hz MediaTek7200-Ultra 5000mAh Battery 120W Fast Charging 200 MP</v>
+        <v>-</v>
       </c>
       <c r="H32" t="str">
-        <v>฿9,500.00</v>
+        <v>129</v>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>ขายแล้ว 7.4พัน ชิ้น</v>
       </c>
       <c r="J32" t="str">
-        <v>(1)</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K32" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L32" t="str">
-        <v/>
+        <v>179</v>
       </c>
       <c r="M32" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-note-13-note-13-pro-note-13-pro-5g-cn-version-667-15k-120hz-mediatek7200-ultra-5000mah-battery-120w-fast-charging-200-mp-i5017649308.html</v>
-      </c>
-      <c r="N32" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/d83097e3c29304b64c5ed447c2b7e31b.png_80x80q80.png_.webp</v>
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://www.lazada.co.th/products/1-vivq-y85-5g-75-6800mah-16gb-ram-512gb-rom-android-110-ultra-hd-i5017466874.html</v>
+        <v>https://shopee.co.th/-STAND-OIL-Post-Bag-7-colors-i.948994911.21273438092?sp_atk=4bdb4645-60a8-4af4-8327-aaaaa55b5206&amp;xptdk=4bdb4645-60a8-4af4-8327-aaaaa55b5206</v>
       </c>
       <c r="B33" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/23bec166ab52ed241ecce3a6a770f5a9.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134207-7rbmp-lo3rc73f8q8889_tn</v>
       </c>
       <c r="C33" t="str">
-        <v>https://www.lazada.co.th/products/1-vivq-y85-5g-75-6800mah-16gb-ram-512gb-rom-android-110-ultra-hd-i5017466874.html</v>
+        <v/>
       </c>
       <c r="D33" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/23bec166ab52ed241ecce3a6a770f5a9.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="E33" t="str">
-        <v>https://www.lazada.co.th/products/1-vivq-y85-5g-75-6800mah-16gb-ram-512gb-rom-android-110-ultra-hd-i5017466874.html</v>
+        <v>https://down-th.img.susercontent.com/file/b1779857572e9296c92ddf8e1e741aab</v>
       </c>
       <c r="F33" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/23bec166ab52ed241ecce3a6a770f5a9.jpg_80x80q80.jpg_.webp</v>
+        <v>[STAND OIL] Post Bag / 7 colors</v>
       </c>
       <c r="G33" t="str">
-        <v>[รับประกัน 1 ปี] VIVQ Y85 สมาร์ทโฟน 5G เต็มหน้าจอ 7.5 นิ้ว 6800mAh 16GB RAM + 512GB ROM Android 11.0 กล้องUltra HDโทรศัพท์มือถือราคาถูก</v>
+        <v/>
       </c>
       <c r="H33" t="str">
-        <v>฿699.00</v>
+        <v>3,200</v>
       </c>
       <c r="I33" t="str">
-        <v>36% Off</v>
+        <v>ขายแล้ว 8.3พัน ชิ้น</v>
       </c>
       <c r="J33" t="str">
-        <v>(3)</v>
+        <v>เกาหลี</v>
       </c>
       <c r="K33" t="str">
-        <v>Bangkok</v>
+        <v/>
       </c>
       <c r="L33" t="str">
-        <v>24 sold</v>
+        <v/>
       </c>
       <c r="M33" t="str">
-        <v/>
-      </c>
-      <c r="N33" t="str">
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a25-5g-8256gb-i5017400627.html</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%A7%E0%B8%A2%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%81%E0%B8%A3%E0%B8%AD%E0%B8%81%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99-i.270411666.12743286946?sp_atk=f34774fa-b81d-40b1-ad7b-1de87d5f221f&amp;xptdk=f34774fa-b81d-40b1-ad7b-1de87d5f221f</v>
       </c>
       <c r="B34" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/dbe88f217b47ac1d701631cbca237e0e.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/b9a0736a576c12d65cddf7652cb523e9_tn</v>
       </c>
       <c r="C34" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a25-5g-8256gb-i5017400627.html</v>
+        <v/>
       </c>
       <c r="D34" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/942fc4fe7d7cea74f13c8eb02651f348.jpg_80x80q80.jpg_.webp</v>
+        <v>-67%</v>
       </c>
       <c r="E34" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F34" t="str">
-        <v/>
+        <v>กรวยพลาสติก ขนาดเล็ก สำหรับกรอกน้ำหอม น้ำมัน</v>
       </c>
       <c r="G34" t="str">
-        <v>Samsung Galaxy A25 5G (8/256GB)</v>
+        <v>฿3</v>
       </c>
       <c r="H34" t="str">
-        <v>฿10,649.00</v>
+        <v>1</v>
       </c>
       <c r="I34" t="str">
-        <v>3% Off</v>
+        <v>ขายแล้ว 46.3พัน ชิ้น</v>
       </c>
       <c r="J34" t="str">
-        <v>(3)</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K34" t="str">
-        <v>Pathum Thani</v>
+        <v/>
       </c>
       <c r="L34" t="str">
-        <v>47 sold</v>
+        <v/>
       </c>
       <c r="M34" t="str">
-        <v/>
-      </c>
-      <c r="N34" t="str">
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://www.lazada.co.th/products/new-vivo-iqoo-neo-9-snapdragon-8-gen-2-vivo-iqoo-neo-9-pro-5g-dimensity-9300-50mp-main-camera-imx920-678-inch-144hz-5160-mah-120w-supervooc-ota-i5017250336.html</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%89%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%94%E0%B8%B3-%E0%B8%94%E0%B8%B5%E0%B9%84%E0%B8%8B%E0%B8%99%E0%B9%8C%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%96%E0%B8%A1-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%A7%E0%B8%B1%E0%B8%A2-i.857472456.20656766510?sp_atk=6046d006-bcf2-478b-a1a0-a68ef0dde5c9&amp;xptdk=6046d006-bcf2-478b-a1a0-a68ef0dde5c9</v>
       </c>
       <c r="B35" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/bd7fdddfef2aad262ec776afefd57c0a.png_200x200q80.png_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-or8or4sutyiv32_tn</v>
       </c>
       <c r="C35" t="str">
-        <v>https://www.lazada.co.th/products/new-vivo-iqoo-neo-9-snapdragon-8-gen-2-vivo-iqoo-neo-9-pro-5g-dimensity-9300-50mp-main-camera-imx920-678-inch-144hz-5160-mah-120w-supervooc-ota-i5017250336.html</v>
+        <v/>
       </c>
       <c r="D35" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/bd7fdddfef2aad262ec776afefd57c0a.png_80x80q80.png_.webp</v>
+        <v>-57%</v>
       </c>
       <c r="E35" t="str">
-        <v>https://www.lazada.co.th/products/new-vivo-iqoo-neo-9-snapdragon-8-gen-2-vivo-iqoo-neo-9-pro-5g-dimensity-9300-50mp-main-camera-imx920-678-inch-144hz-5160-mah-120w-supervooc-ota-i5017250336.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F35" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/bd7fdddfef2aad262ec776afefd57c0a.png_80x80q80.png_.webp</v>
+        <v>กระเป๋าเป้สำหรับนักเรียนสีดำ ดีไซน์น่ารัก พร้อมของแถม สำหรับหญิงและชายทุกวัย</v>
       </c>
       <c r="G35" t="str">
-        <v>New VIVO iQOO Neo 9 Snapdragon 8 Gen 2 |  VIVO iQOO Neo 9 Pro 5G Dimensity 9300 50MP Main Camera IMX920 6.78 Inch 144Hz 5160 mAh 120W SuperVOOC OTA</v>
+        <v>-</v>
       </c>
       <c r="H35" t="str">
-        <v>฿17,299.00</v>
+        <v>199</v>
       </c>
       <c r="I35" t="str">
-        <v/>
+        <v>ขายแล้ว 4.7พัน ชิ้น</v>
       </c>
       <c r="J35" t="str">
-        <v>(0)</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K35" t="str">
-        <v>Bangkok</v>
+        <v>฿</v>
       </c>
       <c r="L35" t="str">
-        <v/>
+        <v>285</v>
       </c>
       <c r="M35" t="str">
-        <v>https://www.lazada.co.th/products/new-vivo-iqoo-neo-9-snapdragon-8-gen-2-vivo-iqoo-neo-9-pro-5g-dimensity-9300-50mp-main-camera-imx920-678-inch-144hz-5160-mah-120w-supervooc-ota-i5017250336.html</v>
-      </c>
-      <c r="N35" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/bd7fdddfef2aad262ec776afefd57c0a.png_80x80q80.png_.webp</v>
+        <v>โค้ดลด ฿10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.lazada.co.th/products/google-pixel-8pro-i5017137699.html</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%84%E0%B8%AD%E0%B9%81%E0%B8%9E%E0%B8%94-i.952164731.23368192986?sp_atk=a2492b63-d67e-4d36-a21f-9b47425aba70&amp;xptdk=a2492b63-d67e-4d36-a21f-9b47425aba70</v>
       </c>
       <c r="B36" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4507bcf2b84689a4aa4b6e0ef8a72b1b.png_200x200q80.png_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-llg0n8qpis5w08_tn</v>
       </c>
       <c r="C36" t="str">
-        <v>https://www.lazada.co.th/products/google-pixel-8pro-i5017137699.html</v>
+        <v/>
       </c>
       <c r="D36" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4507bcf2b84689a4aa4b6e0ef8a72b1b.png_80x80q80.png_.webp</v>
+        <v>-41%</v>
       </c>
       <c r="E36" t="str">
-        <v>https://www.lazada.co.th/products/google-pixel-8pro-i5017137699.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F36" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4507bcf2b84689a4aa4b6e0ef8a72b1b.png_80x80q80.png_.webp</v>
+        <v>ส่งเร็วของแท้ กระเป๋าไอแพด</v>
       </c>
       <c r="G36" t="str">
-        <v>Google Pixel 8Pro พร้อมส่งจากไทย</v>
+        <v>฿270</v>
       </c>
       <c r="H36" t="str">
-        <v>฿33,299.00</v>
+        <v>158</v>
       </c>
       <c r="I36" t="str">
-        <v>15% Off</v>
+        <v>ขายแล้ว 2.6พัน ชิ้น</v>
       </c>
       <c r="J36" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K36" t="str">
-        <v>Bangkok</v>
+        <v/>
       </c>
       <c r="L36" t="str">
         <v/>
       </c>
       <c r="M36" t="str">
-        <v>https://www.lazada.co.th/products/google-pixel-8pro-i5017137699.html</v>
-      </c>
-      <c r="N36" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4507bcf2b84689a4aa4b6e0ef8a72b1b.png_80x80q80.png_.webp</v>
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a83-100-ram-6g-rom-128gb-57-1-i5017007185.html</v>
+        <v>https://shopee.co.th/W1008-2-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B8%A1%E0%B8%B5%E0%B8%8B%E0%B8%B4%E0%B8%9B-%E0%B8%AA%E0%B8%B5%E0%B8%95%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B1%E0%B8%99-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.65173690.18583073251?sp_atk=5d39540c-2d36-46e1-9e04-bfb1cd30dfdf&amp;xptdk=5d39540c-2d36-46e1-9e04-bfb1cd30dfdf</v>
       </c>
       <c r="B37" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/38432882148cc6d0ae91e3d972ee2374.jpg_200x200q80.jpg_.webp</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-lkjc8dor6sx595_tn</v>
       </c>
       <c r="C37" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a83-100-ram-6g-rom-128gb-57-1-i5017007185.html</v>
+        <v/>
       </c>
       <c r="D37" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/38432882148cc6d0ae91e3d972ee2374.jpg_80x80q80.jpg_.webp</v>
+        <v>-2%</v>
       </c>
       <c r="E37" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a83-100-ram-6g-rom-128gb-57-1-i5017007185.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F37" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/38432882148cc6d0ae91e3d972ee2374.jpg_80x80q80.jpg_.webp</v>
+        <v>W1008-2 กระเป๋าสตางค์ มีซิป สีตัดกัน ความจุขนาดใหญ่ สําหรับผู้หญิง</v>
       </c>
       <c r="G37" t="str">
-        <v>OPPO A83 โทรศัพท์มือถือแบรนด์ใหม่ (ของแท้ 100%) RAM 6G ROM 128GB หน้าจอ 5.7 นิ้ว รับประกันฟรี 1 ป</v>
+        <v>฿60</v>
       </c>
       <c r="H37" t="str">
-        <v>฿1,335.00</v>
+        <v>59</v>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>ขายแล้ว 6.5พัน ชิ้น</v>
       </c>
       <c r="J37" t="str">
-        <v>(9)</v>
+        <v>จังหวัดมุกดาหาร</v>
       </c>
       <c r="K37" t="str">
-        <v>Bangkok</v>
+        <v/>
       </c>
       <c r="L37" t="str">
-        <v>31 sold</v>
+        <v/>
       </c>
       <c r="M37" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a83-100-ram-6g-rom-128gb-57-1-i5017007185.html</v>
-      </c>
-      <c r="N37" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/38432882148cc6d0ae91e3d972ee2374.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a25-5g-8256gb-1-i5016951836.html</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5(B-205)%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%8A%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B9%83%E0%B8%9A%E0%B8%AA%E0%B8%B1%E0%B9%89%E0%B8%99-i.26237854.19381589734?sp_atk=95341f94-e6c0-4073-a89e-6869aa620e1d&amp;xptdk=95341f94-e6c0-4073-a89e-6869aa620e1d</v>
       </c>
       <c r="B38" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul0-lix0zkqjvgmg15_tn</v>
       </c>
       <c r="C38" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a25-5g-8256gb-1-i5016951836.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D38" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-57%</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F38" t="str">
-        <v/>
+        <v>🔥(B-205)กระเป๋าสตางค์น่ารัก กระเป๋าสตางค์ พร้อมช่องใส่บัตร สําหรับผู้หญิง ใบสั้น</v>
       </c>
       <c r="G38" t="str">
-        <v>Samsung Galaxy A25 5G (8/256GB) หน้าจอใหญ่ แบตอึด เครื่องแท้มือ1 ประกันศูนย์ไทย</v>
+        <v>-</v>
       </c>
       <c r="H38" t="str">
-        <v>฿10,999.00</v>
+        <v>34</v>
       </c>
       <c r="I38" t="str">
-        <v/>
+        <v>ขายแล้ว 22.1พัน ชิ้น</v>
       </c>
       <c r="J38" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K38" t="str">
-        <v>Songkhla</v>
+        <v>฿</v>
       </c>
       <c r="L38" t="str">
-        <v/>
+        <v>45</v>
       </c>
       <c r="M38" t="str">
-        <v/>
-      </c>
-      <c r="N38" t="str">
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.lazada.co.th/products/oppo-f9f9-pro-100-ram-6g-rom-128gb-63-1-i5016927643.html</v>
+        <v>https://shopee.co.th/1064-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%89%E0%B8%A1%E0%B8%B5%E0%B8%8A%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A5%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%9B%E0%B9%89-i.345218.19277837486?sp_atk=588c7711-d7f6-4d69-9d0b-1b31cb997929&amp;xptdk=588c7711-d7f6-4d69-9d0b-1b31cb997929</v>
       </c>
       <c r="B39" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukx-lf81ttsh7gnlca_tn</v>
       </c>
       <c r="C39" t="str">
-        <v>https://www.lazada.co.th/products/oppo-f9f9-pro-100-ram-6g-rom-128gb-63-1-i5016927643.html</v>
+        <v/>
       </c>
       <c r="D39" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-30%</v>
       </c>
       <c r="E39" t="str">
-        <v>https://www.lazada.co.th/products/oppo-f9f9-pro-100-ram-6g-rom-128gb-63-1-i5016927643.html</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F39" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>1064#กระเป๋าเป้มีช่องลับเป้</v>
       </c>
       <c r="G39" t="str">
-        <v>OPPO F9/F9 Pro โทรศัพท์มือถือแบรนด์ใหม่ (ของแท้ 100%) RAM 6G ROM 128GB หน้าจอ 6.3 นิ้ว รับประกันฟรี 1 ปี</v>
+        <v>฿299</v>
       </c>
       <c r="H39" t="str">
-        <v>฿1,800.00</v>
+        <v>209</v>
       </c>
       <c r="I39" t="str">
-        <v/>
+        <v>ขายแล้ว 1.8พัน ชิ้น</v>
       </c>
       <c r="J39" t="str">
-        <v>(10)</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K39" t="str">
-        <v>Bangkok</v>
+        <v/>
       </c>
       <c r="L39" t="str">
-        <v>40 sold</v>
+        <v/>
       </c>
       <c r="M39" t="str">
-        <v>https://www.lazada.co.th/products/oppo-f9f9-pro-100-ram-6g-rom-128gb-63-1-i5016927643.html</v>
-      </c>
-      <c r="N39" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a15-5g-i5016604243.html</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-18-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%A1%E0%B8%B5%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-i.53943566.22686387476?sp_atk=20ffeebb-6c81-4dbb-a884-143723926df6&amp;xptdk=20ffeebb-6c81-4dbb-a884-143723926df6</v>
       </c>
       <c r="B40" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98t-lo3jrrlhhgfb1d_tn</v>
       </c>
       <c r="C40" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a15-5g-i5016604243.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D40" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-40%</v>
       </c>
       <c r="E40" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F40" t="str">
-        <v/>
+        <v>กระเป๋าเดินทาง 18 นิ้ว มีหลายสีให้เลือก</v>
       </c>
       <c r="G40" t="str">
-        <v>สมาร์ทโฟน Samsung Galaxy A15 (5G)</v>
+        <v>฿930</v>
       </c>
       <c r="H40" t="str">
-        <v>฿8,999.00</v>
+        <v>559</v>
       </c>
       <c r="I40" t="str">
-        <v/>
+        <v>ขายแล้ว 636 ชิ้น</v>
       </c>
       <c r="J40" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K40" t="str">
-        <v>Samut Prakan</v>
+        <v/>
       </c>
       <c r="L40" t="str">
         <v/>
       </c>
       <c r="M40" t="str">
-        <v/>
-      </c>
-      <c r="N40" t="str">
-        <v/>
+        <v>โค้ดลด ฿30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a15-8128gb-by-banana-it-i5016373889.html</v>
+        <v>https://shopee.co.th/%E2%9D%A3%EF%B8%8F%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%84%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%84%E0%B8%A5%E0%B8%B8%E0%B8%A1%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-PVC-%E0%B9%83%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%82%E0%B8%AD%E0%B8%9A-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A3%E0%B8%AD%E0%B8%A2-%E0%B8%AB%E0%B8%99%E0%B8%B2%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9-7-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-i.546762445.19940241854?sp_atk=2627b289-d41d-480b-aadb-ddcd334f0a1e&amp;xptdk=2627b289-d41d-480b-aadb-ddcd334f0a1e</v>
       </c>
       <c r="B41" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-ln8h81k0zb8330_tn</v>
       </c>
       <c r="C41" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a15-8128gb-by-banana-it-i5016373889.html</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D41" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>-71%</v>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F41" t="str">
-        <v/>
+        <v>❣️ส่งล็อคกระเป๋าเดินทาง ผ้าคลุมกระเป๋าเดินทาง PVC ใสกันน้ำ ไร้ขอบ กันรอย หนาพิเศษ 7 ขนาด</v>
       </c>
       <c r="G41" t="str">
-        <v>สมาร์ทโฟน Samsung Galaxy A15 (8+128GB) by Banana IT</v>
+        <v>-</v>
       </c>
       <c r="H41" t="str">
-        <v>฿6,999.00</v>
+        <v>51</v>
       </c>
       <c r="I41" t="str">
-        <v/>
+        <v>ขายแล้ว 5.5พัน ชิ้น</v>
       </c>
       <c r="J41" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K41" t="str">
-        <v>Samut Prakan</v>
+        <v>฿</v>
       </c>
       <c r="L41" t="str">
-        <v/>
+        <v>125</v>
       </c>
       <c r="M41" t="str">
-        <v/>
-      </c>
-      <c r="N41" t="str">
+        <v>โค้ดลด ฿5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://shopee.co.th/(%F0%9F%A7%BA%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B9%84%E0%B8%9B%E0%B8%95%E0%B8%A5%E0%B8%B2%E0%B8%94%E0%B8%AA%E0%B8%A7%E0%B8%A2%E0%B9%86-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-(%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%9B%E0%B9%89%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%97%E0%B8%B2%E0%B8%99%E0%B9%89%E0%B8%B2*)-i.1384717.11033758787?sp_atk=382e74cd-c292-4552-b61b-92e61c04eaab&amp;xptdk=382e74cd-c292-4552-b61b-92e61c04eaab</v>
+      </c>
+      <c r="B42" t="str">
+        <v>https://down-th.img.susercontent.com/file/5450d1e7fadcb4296ca5c24f779b2958_tn</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+      </c>
+      <c r="F42" t="str">
+        <v>(🧺พร้อมส่ง) กระเป๋าผ้าขนาดใบเล็ก พกพา ไปตลาดสวยๆ ใส่ของได้เยอะ  (ไม่มีป้ายเทาน้า*)</v>
+      </c>
+      <c r="G42" t="str">
+        <v>-</v>
+      </c>
+      <c r="H42" t="str">
+        <v>5</v>
+      </c>
+      <c r="I42" t="str">
+        <v>ขายแล้ว 5.9พัน ชิ้น</v>
+      </c>
+      <c r="J42" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="K42" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L42" t="str">
+        <v>19</v>
+      </c>
+      <c r="M42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://shopee.co.th/Tpartner-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B2%E0%B8%81%E2%80%8B-Insta-Series-%E0%B9%80%E0%B8%9F%E0%B8%A3%E0%B8%A1%E0%B8%8B%E0%B8%B4%E0%B8%9B-%E0%B8%A7%E0%B8%B1%E0%B8%AA%E0%B8%94%E0%B8%B8ABS-PC-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-8-%E0%B8%AA%E0%B8%B5-i.76171761.6652090841?sp_atk=bef85372-72f8-4ad1-899f-d4c0066bec35&amp;xptdk=bef85372-72f8-4ad1-899f-d4c0066bec35</v>
+      </c>
+      <c r="B43" t="str">
+        <v>https://down-th.img.susercontent.com/file/b39b231061b49e1982a468c988f473b9_tn</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v>-69%</v>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>Tpartner กระเป๋าเดินทาง  กระเป๋าเดินทางล้อลาก​ Insta Series เฟรมซิป วัสดุABS+PC สีสดใส 8 สี</v>
+      </c>
+      <c r="G43" t="str">
+        <v>-</v>
+      </c>
+      <c r="H43" t="str">
+        <v>666</v>
+      </c>
+      <c r="I43" t="str">
+        <v>ขายแล้ว 25.2พัน ชิ้น</v>
+      </c>
+      <c r="J43" t="str">
+        <v>จังหวัดสมุทรปราการ</v>
+      </c>
+      <c r="K43" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L43" t="str">
+        <v>849</v>
+      </c>
+      <c r="M43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-Adidas-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%8A%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.340787792.22319608226?sp_atk=3bad5569-1bc8-4b16-8eba-1d371dc8fdfc&amp;xptdk=3bad5569-1bc8-4b16-8eba-1d371dc8fdfc</v>
+      </c>
+      <c r="B44" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-jg386ggvqkmv6e_tn</v>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v>-40%</v>
+      </c>
+      <c r="E44" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+      </c>
+      <c r="F44" t="str">
+        <v>กระเป๋า Adidas สินค้าใหม่ล่าสุด สะพายข้างจุของได้เยอะแฟชั่นกระเป๋าผู้ชายและผู้หญิง</v>
+      </c>
+      <c r="G44" t="str">
+        <v>฿199</v>
+      </c>
+      <c r="H44" t="str">
+        <v>119</v>
+      </c>
+      <c r="I44" t="str">
+        <v>ขายแล้ว 7.6พัน ชิ้น</v>
+      </c>
+      <c r="J44" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%AD%E0%B8%B4%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B8%97%E0%B8%A3%E0%B8%AD%E0%B8%99%E0%B8%B4%E0%B8%81%E0%B8%AA%E0%B9%8C%E0%B8%94%E0%B8%B4%E0%B8%88%E0%B8%B4%E0%B8%95%E0%B8%AD%E0%B8%A5-50kg-10g-%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-No.-JY29-i.81245665.8142762164?sp_atk=02881ea1-58a0-4600-8bdb-3ea13311e495&amp;xptdk=02881ea1-58a0-4600-8bdb-3ea13311e495</v>
+      </c>
+      <c r="B45" t="str">
+        <v>https://down-th.img.susercontent.com/file/a690409f6dc00c1752c0d6ce74fc8bc4_tn</v>
+      </c>
+      <c r="C45" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="D45" t="str">
+        <v>-41%</v>
+      </c>
+      <c r="E45" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+      </c>
+      <c r="F45" t="str">
+        <v>เครื่องชั่งกระเป๋า เครื่องชั่งน้ำหนักอิเล็กทรอนิกส์ดิจิตอล 50kg/10g ชั่งกระเป๋า No. JY29</v>
+      </c>
+      <c r="G45" t="str">
+        <v>-</v>
+      </c>
+      <c r="H45" t="str">
+        <v>65</v>
+      </c>
+      <c r="I45" t="str">
+        <v>ขายแล้ว 20.1พัน ชิ้น</v>
+      </c>
+      <c r="J45" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="K45" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L45" t="str">
+        <v>115</v>
+      </c>
+      <c r="M45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://shopee.co.th/%EF%BC%88B586%EF%BC%83)%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%84%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%AA-%E0%B8%9B%E0%B8%B1%E0%B8%81%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%99%E0%B8%B1%E0%B8%82-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B8%A7%E0%B8%B4%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%88-%E0%B8%AE%E0%B8%B2%E0%B8%A3%E0%B8%B2%E0%B8%88%E0%B8%B9%E0%B8%81%E0%B8%B8-%E0%B8%8D%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%95%E0%B8%B8%E0%B9%8A%E0%B8%81%E0%B8%95%E0%B8%B2%E0%B8%84%E0%B8%B0-i.696506283.22126363188?sp_atk=5e02298f-0848-4a8c-b5ea-ceecaef3683c&amp;xptdk=5e02298f-0848-4a8c-b5ea-ceecaef3683c</v>
+      </c>
+      <c r="B46" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-7iji6f08ztnvb1_tn</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v>（B586＃)กระเป๋าผ้าแคนวาส ปักลายลูกสุนัข สําหรับผู้หญิง สไตล์วินเทจ ฮาราจูกุ ญี่ปุ่น ไม่มีตุ๊กตาคะ</v>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v>39</v>
+      </c>
+      <c r="I46" t="str">
+        <v>ขายแล้ว 6.8พัน ชิ้น</v>
+      </c>
+      <c r="J46" t="str">
+        <v>จังหวัดนนทบุรี</v>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <v/>
+      </c>
+      <c r="M46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://shopee.co.th/C-k-Y2K-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%89%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%AB%E0%B8%A5%E0%B8%B1%E0%B8%87-%E0%B8%AD%E0%B9%80%E0%B8%99%E0%B8%81%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AA%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B8%AA%E0%B8%B5%E0%B8%95%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B1%E0%B8%99-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%8D%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99-i.886122338.23777894889?sp_atk=67e1903d-dcf2-4439-8acc-3b8108a0afb7&amp;xptdk=67e1903d-dcf2-4439-8acc-3b8108a0afb7</v>
+      </c>
+      <c r="B47" t="str">
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lo1xf8v05h8o8b_tn</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v>-58%</v>
+      </c>
+      <c r="E47" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+      </c>
+      <c r="F47" t="str">
+        <v>C&amp;k Y2K กระเป๋าเป้สะพายหลัง อเนกประสงค์ สีตัดกัน สไตล์เกาหลี ญี่ปุ่น สําหรับผู้หญิง นักเรียน</v>
+      </c>
+      <c r="G47" t="str">
+        <v>-</v>
+      </c>
+      <c r="H47" t="str">
+        <v>179</v>
+      </c>
+      <c r="I47" t="str">
+        <v>ขายแล้ว 3.8พัน ชิ้น</v>
+      </c>
+      <c r="J47" t="str">
+        <v>ต่างประเทศ</v>
+      </c>
+      <c r="K47" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L47" t="str">
+        <v>195</v>
+      </c>
+      <c r="M47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://shopee.co.th/%F0%9F%91%9C%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%91%9C-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%9A%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%95-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A%E0%B8%9E%E0%B8%A5%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%A1-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%82%E0%B8%8B%E0%B9%88%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%87-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-i.952164731.18593581234?sp_atk=0561344a-960d-4ca6-90e0-a7baa7bfc3fc&amp;xptdk=0561344a-960d-4ca6-90e0-a7baa7bfc3fc</v>
+      </c>
+      <c r="B48" t="str">
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lns1f7b2ak5ka6_tn</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v>-90%</v>
+      </c>
+      <c r="E48" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+      </c>
+      <c r="F48" t="str">
+        <v>👜พร้อมส่ง👜 กระเป๋าสะพายไหล่ ทรงบักเก็ต ประดับพลอยเทียม พร้อมสายโซ่คล้อง แฟชั่น</v>
+      </c>
+      <c r="G48" t="str">
+        <v>-</v>
+      </c>
+      <c r="H48" t="str">
+        <v>39</v>
+      </c>
+      <c r="I48" t="str">
+        <v>ขายแล้ว 1.4พัน ชิ้น</v>
+      </c>
+      <c r="J48" t="str">
+        <v>ต่างประเทศ</v>
+      </c>
+      <c r="K48" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L48" t="str">
+        <v>109</v>
+      </c>
+      <c r="M48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87-pu-%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%88%E0%B8%A1shiny-girl88-i.17712086.16798861593?sp_atk=dbc39e74-a3aa-4aeb-aeb2-feb76df2bb49&amp;xptdk=dbc39e74-a3aa-4aeb-aeb2-feb76df2bb49</v>
+      </c>
+      <c r="B49" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-llnnmdxqa4i3a2_tn</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v>-36%</v>
+      </c>
+      <c r="E49" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+      </c>
+      <c r="F49" t="str">
+        <v>กระเป๋าสะพายข้างแฟชั่นผู้หญิงหนัง pu หนังนิ่มshiny girl88</v>
+      </c>
+      <c r="G49" t="str">
+        <v>฿200</v>
+      </c>
+      <c r="H49" t="str">
+        <v>129</v>
+      </c>
+      <c r="I49" t="str">
+        <v>ขายแล้ว 2.6พัน ชิ้น</v>
+      </c>
+      <c r="J49" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <v/>
+      </c>
+      <c r="M49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://shopee.co.th/Mh-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%82%E0%B8%97%E0%B9%89%E0%B8%97-%E0%B8%96%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%95%E0%B8%95%E0%B8%B4%E0%B9%89%E0%B8%87-%E0%B8%97%E0%B8%AD%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%9C%E0%B8%B9%E0%B8%81%E0%B8%9B%E0%B8%A1%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%8B%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B8%E0%B8%AA%E0%B8%B9%E0%B8%87-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99-i.40258835.14599729195?sp_atk=e0b97985-2fa2-46ef-ad17-f9d1c3953a5c&amp;xptdk=e0b97985-2fa2-46ef-ad17-f9d1c3953a5c</v>
+      </c>
+      <c r="B50" t="str">
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbl4-lq2t56fzys909f_tn</v>
+      </c>
+      <c r="C50" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="D50" t="str">
+        <v>-89%</v>
+      </c>
+      <c r="E50" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Mh กระเป๋าโท้ท ถักนิตติ้ง ทอมือ ผูกปมคู่ ใช้ซ้ําได้ ความจุสูง สําหรับนักเรียน</v>
+      </c>
+      <c r="G50" t="str">
+        <v>-</v>
+      </c>
+      <c r="H50" t="str">
+        <v>45</v>
+      </c>
+      <c r="I50" t="str">
+        <v>ขายแล้ว 450 ชิ้น</v>
+      </c>
+      <c r="J50" t="str">
+        <v>ต่างประเทศ</v>
+      </c>
+      <c r="K50" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L50" t="str">
+        <v>105</v>
+      </c>
+      <c r="M50" t="str">
+        <v>ส่วนลด 5%</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://shopee.co.th/-%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-CICIMARV1-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1-%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-1-%E0%B8%9A%E0%B8%B2%E0%B8%97!!-%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5%E0%B8%9E%E0%B8%A7%E0%B8%87%E0%B8%81%E0%B8%B8%E0%B8%8D%E0%B9%81%E0%B8%88%E0%B8%95%E0%B8%B8%E0%B9%8A%E0%B8%81%E0%B8%95%E0%B8%B2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B8%9E%E0%B8%A7%E0%B8%87%E0%B8%81%E0%B8%B8%E0%B8%8D%E0%B9%81%E0%B8%88%E0%B8%AB%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%95%E0%B8%B8%E0%B9%8A%E0%B8%81%E0%B8%95%E0%B8%B2%E0%B8%8D%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B9%E0%B8%99-i.268351454.6247440733?sp_atk=cbd3c499-8c3e-499b-9002-c6239118f205&amp;xptdk=cbd3c499-8c3e-499b-9002-c6239118f205</v>
+      </c>
+      <c r="B51" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lmfr9rsfknf215_tn</v>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v>-79%</v>
+      </c>
+      <c r="E51" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+      </c>
+      <c r="F51" t="str">
+        <v>[โค้ด CICIMARV1 ลดเพิ่ม/ลูกค้าใหม่ 1 บาท!! ]🔥พร้อมส่ง🔥พวงกุญแจตุ๊กตาน่ารัก พวงกุญแจห้อยกระเป๋าตุ๊กตาญี่ปุ่น ลายการ์ตูน</v>
+      </c>
+      <c r="G51" t="str">
+        <v>-</v>
+      </c>
+      <c r="H51" t="str">
+        <v>23</v>
+      </c>
+      <c r="I51" t="str">
+        <v>ขายแล้ว 65.6พัน ชิ้น</v>
+      </c>
+      <c r="J51" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="K51" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L51" t="str">
+        <v>66</v>
+      </c>
+      <c r="M51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://shopee.co.th/%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AB%E0%B8%B8%E0%B9%89%E0%B8%A1%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87%E0%B8%A3%E0%B8%9A%E0%B8%81%E0%B8%A7%E0%B8%99-8PCS-%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%A3%E0%B8%87%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%94%E0%B8%97%E0%B8%B2%E0%B8%99-i.278548362.22256128698?sp_atk=a0826e0c-e53d-4d5b-a1ae-7e05ae007476&amp;xptdk=a0826e0c-e53d-4d5b-a1ae-7e05ae007476</v>
+      </c>
+      <c r="B52" t="str">
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbnf-lni0d9d9a4kw0c_tn</v>
+      </c>
+      <c r="C52" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="D52" t="str">
+        <v>-86%</v>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v>ปลอกหุ้มล้อกระเป๋าเดินทาง แบบซิลิโคน ลดเสียงรบกวน 8PCS ป้องกันแรงเสียดทาน</v>
+      </c>
+      <c r="G52" t="str">
+        <v>-</v>
+      </c>
+      <c r="H52" t="str">
+        <v>27</v>
+      </c>
+      <c r="I52" t="str">
+        <v>ขายแล้ว 2พัน ชิ้น</v>
+      </c>
+      <c r="J52" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="K52" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L52" t="str">
+        <v>69</v>
+      </c>
+      <c r="M52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://shopee.co.th/(B-950)%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%AD%E0%B8%81-%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%AD%E0%B8%A7-%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B8%AA%E0%B8%9B%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%95-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%97%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B1%E0%B8%94-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2-i.26237854.20376671295?sp_atk=04341576-1e9e-47a5-bc4b-1e8c58af66cf&amp;xptdk=04341576-1e9e-47a5-bc4b-1e8c58af66cf</v>
+      </c>
+      <c r="B53" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-nogjtcar0wov95_tn</v>
+      </c>
+      <c r="C53" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="D53" t="str">
+        <v>-64%</v>
+      </c>
+      <c r="E53" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+      </c>
+      <c r="F53" t="str">
+        <v>(B-950)🔥กระเป๋าคาดหน้าอก คาดเอว สะพายข้าง สไตล์สปอร์ต ขนาดกระทัดรัด กระเป๋าผ้า</v>
+      </c>
+      <c r="G53" t="str">
+        <v>-</v>
+      </c>
+      <c r="H53" t="str">
+        <v>36</v>
+      </c>
+      <c r="I53" t="str">
+        <v>ขายแล้ว 19.6พัน ชิ้น</v>
+      </c>
+      <c r="J53" t="str">
+        <v>จังหวัดสมุทรปราการ</v>
+      </c>
+      <c r="K53" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L53" t="str">
+        <v>38</v>
+      </c>
+      <c r="M53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://shopee.co.th/(HB-493)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%82%E0%B8%97%E0%B8%A3%E0%B8%A8%E0%B8%B1%E0%B8%9E%E0%B8%97%E0%B9%8C%E0%B9%84%E0%B8%94%E0%B9%89-i.148585848.17232969474?sp_atk=9bb39380-38ea-4d4b-afd1-fbbeb7215e58&amp;xptdk=9bb39380-38ea-4d4b-afd1-fbbeb7215e58</v>
+      </c>
+      <c r="B54" t="str">
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvdh-lh0brc4kslrjff_tn</v>
+      </c>
+      <c r="C54" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="D54" t="str">
+        <v>-50%</v>
+      </c>
+      <c r="E54" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+      </c>
+      <c r="F54" t="str">
+        <v>(HB-493) กระเป๋าสะพายไหล่ สะพายข้าง ใส่โทรศัพท์ได้</v>
+      </c>
+      <c r="G54" t="str">
+        <v>-</v>
+      </c>
+      <c r="H54" t="str">
+        <v>60</v>
+      </c>
+      <c r="I54" t="str">
+        <v>ขายแล้ว 10.1พัน ชิ้น</v>
+      </c>
+      <c r="J54" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="K54" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L54" t="str">
+        <v>68</v>
+      </c>
+      <c r="M54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://shopee.co.th/B-995%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-ins-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88%E0%B9%80%E0%B8%94%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%A7%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%A5%E0%B8%B3%E0%B8%A5%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B8%88%E0%B8%B5%E0%B8%9A-i.26237854.19979245845?sp_atk=8a63d57b-4121-442c-8436-c553bdadc08f&amp;xptdk=8a63d57b-4121-442c-8436-c553bdadc08f</v>
+      </c>
+      <c r="B55" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul2-lg3msq7s1t73ce_tn</v>
+      </c>
+      <c r="C55" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="D55" t="str">
+        <v>-67%</v>
+      </c>
+      <c r="E55" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+      </c>
+      <c r="F55" t="str">
+        <v>B-995🔥พร้อมส่งที่ไทย🔥 กระเป๋าผู้หญิง ins กระเป๋ารักแร้สะพายไหล่เดี่ยวแบบลำลองแฟชั่นเข้าชุดง่ายกระเป๋าถือจีบ</v>
+      </c>
+      <c r="G55" t="str">
+        <v>-</v>
+      </c>
+      <c r="H55" t="str">
+        <v>66</v>
+      </c>
+      <c r="I55" t="str">
+        <v>ขายแล้ว 20.2พัน ชิ้น</v>
+      </c>
+      <c r="J55" t="str">
+        <v>จังหวัดสมุทรปราการ</v>
+      </c>
+      <c r="K55" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L55" t="str">
+        <v>79</v>
+      </c>
+      <c r="M55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://shopee.co.th/KIQUNE-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%AD%E0%B9%80%E0%B8%99%E0%B8%81%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AA%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%9E%E0%B8%87-GDJ23C027M-49Z231204-i.885544097.24752572402?sp_atk=473d9824-e46e-4bf9-8c55-c14239a058d5&amp;xptdk=473d9824-e46e-4bf9-8c55-c14239a058d5</v>
+      </c>
+      <c r="B56" t="str">
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lposj91j760r3c_tn</v>
+      </c>
+      <c r="C56" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="D56" t="str">
+        <v>-60%</v>
+      </c>
+      <c r="E56" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+      </c>
+      <c r="F56" t="str">
+        <v>KIQUNE กระเป๋าสะพายข้าง กระเป๋าผ้า ความจุขนาดใหญ่ อเนกประสงค์ เรียบง่าย ราคาไม่แพง GDJ23C027M 49Z231204</v>
+      </c>
+      <c r="G56" t="str">
+        <v>฿488</v>
+      </c>
+      <c r="H56" t="str">
+        <v>195</v>
+      </c>
+      <c r="I56" t="str">
+        <v>ขายแล้ว 220 ชิ้น</v>
+      </c>
+      <c r="J56" t="str">
+        <v>ต่างประเทศ</v>
+      </c>
+      <c r="K56" t="str">
+        <v/>
+      </c>
+      <c r="L56" t="str">
+        <v/>
+      </c>
+      <c r="M56" t="str">
+        <v>โค้ดลด ฿10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://shopee.co.th/Am-Bag-%F0%9F%8C%BA%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-bucket-bag%F0%9F%A7%BA-i.174321098.20764683786?sp_atk=47d34aba-c6b1-472f-a309-f35b98d10bcc&amp;xptdk=47d34aba-c6b1-472f-a309-f35b98d10bcc</v>
+      </c>
+      <c r="B57" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98t-lpab7u8717cu67_tn</v>
+      </c>
+      <c r="C57" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="D57" t="str">
+        <v>-74%</v>
+      </c>
+      <c r="E57" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Am Bag 🌺กระเป๋าถือ กระเป๋าผ้า สไตล์เกาหลี แฟชั่นมา น่ารัก -bucket bag🧺</v>
+      </c>
+      <c r="G57" t="str">
+        <v>-</v>
+      </c>
+      <c r="H57" t="str">
+        <v>28</v>
+      </c>
+      <c r="I57" t="str">
+        <v>ขายแล้ว 3.9พัน ชิ้น</v>
+      </c>
+      <c r="J57" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="K57" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L57" t="str">
+        <v>29</v>
+      </c>
+      <c r="M57" t="str">
+        <v>โค้ดลด ฿1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%AB%E0%B8%A5%E0%B8%B1%E0%B8%87-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%A3%E0%B8%B9%E0%B8%94-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-i.98465314.1795513142?sp_atk=72577fd4-be5e-4053-8d08-53a99b66bfa3&amp;xptdk=72577fd4-be5e-4053-8d08-53a99b66bfa3</v>
+      </c>
+      <c r="B58" t="str">
+        <v>https://down-th.img.susercontent.com/file/05511ae54dfc2f726b39c79c5ed3c12f_tn</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v>-82%</v>
+      </c>
+      <c r="E58" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+      </c>
+      <c r="F58" t="str">
+        <v>กระเป๋าสะพายหลัง แบบสายรูด สำหรับพกพา</v>
+      </c>
+      <c r="G58" t="str">
+        <v>-</v>
+      </c>
+      <c r="H58" t="str">
+        <v>9</v>
+      </c>
+      <c r="I58" t="str">
+        <v>ขายแล้ว 40.7พัน ชิ้น</v>
+      </c>
+      <c r="J58" t="str">
+        <v>ต่างประเทศ</v>
+      </c>
+      <c r="K58" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L58" t="str">
+        <v>19</v>
+      </c>
+      <c r="M58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%8D%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3-PU-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87-i.839888222.20389546864?sp_atk=1f144934-ef07-4504-b08f-157a3f7eaf4a&amp;xptdk=1f144934-ef07-4504-b08f-157a3f7eaf4a</v>
+      </c>
+      <c r="B59" t="str">
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvdl-lhpzrcdkdha205_tn</v>
+      </c>
+      <c r="C59" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="D59" t="str">
+        <v>-50%</v>
+      </c>
+      <c r="E59" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+      </c>
+      <c r="F59" t="str">
+        <v>กระเป๋าใส่เหรียญกระเป๋าใส่บัตร PU แบบแข็ง</v>
+      </c>
+      <c r="G59" t="str">
+        <v>฿318</v>
+      </c>
+      <c r="H59" t="str">
+        <v>159</v>
+      </c>
+      <c r="I59" t="str">
+        <v>ขายแล้ว 486 ชิ้น</v>
+      </c>
+      <c r="J59" t="str">
+        <v>ต่างประเทศ</v>
+      </c>
+      <c r="K59" t="str">
+        <v/>
+      </c>
+      <c r="L59" t="str">
+        <v/>
+      </c>
+      <c r="M59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%84%E0%B8%97%E0%B8%A2-(4%E0%B8%AA%E0%B8%B5-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%84%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%AA%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%83%E0%B8%9A%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%96%E0%B8%AD%E0%B8%94%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%94%E0%B9%89-i.72527551.21690881811?sp_atk=70db287c-a6c9-4cf7-8ad2-e676c51b84b6&amp;xptdk=70db287c-a6c9-4cf7-8ad2-e676c51b84b6</v>
+      </c>
+      <c r="B60" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul9-ljbb6mokxyi05a_tn</v>
+      </c>
+      <c r="C60" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v>ส่งจากไทย (4สี/พร้อมส่ง) กระเป๋าสะพายข้าง ผ้าแคนวาสสไตล์ใหม่ ใบใหญ่ ถอดสายได้</v>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <v>99</v>
+      </c>
+      <c r="I60" t="str">
+        <v>ขายแล้ว 3.2พัน ชิ้น</v>
+      </c>
+      <c r="J60" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="K60" t="str">
+        <v/>
+      </c>
+      <c r="L60" t="str">
+        <v/>
+      </c>
+      <c r="M60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://shopee.co.th/Lhj-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%8A%E0%B9%89%E0%B8%AD%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%AA%E0%B8%B5%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-DYM-i.98783201.14598482073?sp_atk=feeb6f56-b35b-4111-b9c3-eaa9bbaff33b&amp;xptdk=feeb6f56-b35b-4111-b9c3-eaa9bbaff33b</v>
+      </c>
+      <c r="B61" t="str">
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lphumqnhycu76b_tn</v>
+      </c>
+      <c r="C61" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="D61" t="str">
+        <v>-50%</v>
+      </c>
+      <c r="E61" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Lhj กระเป๋าช้อปปิ้ง กระเป๋าถือ สีพื้น สําหรับผู้หญิง DYM</v>
+      </c>
+      <c r="G61" t="str">
+        <v>-</v>
+      </c>
+      <c r="H61" t="str">
+        <v>30</v>
+      </c>
+      <c r="I61" t="str">
+        <v>ขายแล้ว 373 ชิ้น</v>
+      </c>
+      <c r="J61" t="str">
+        <v>ต่างประเทศ</v>
+      </c>
+      <c r="K61" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L61" t="str">
+        <v>44</v>
+      </c>
+      <c r="M61" t="str">
         <v/>
       </c>
     </row>
